--- a/TNR_JDD/JDD.RO.CAL.xlsx
+++ b/TNR_JDD/JDD.RO.CAL.xlsx
@@ -12,7 +12,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mixizbmmF54iVfhsCynZ3/GHCvllg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7miI21rEBGJ7YSpsoIl6GtbbmCFIXA=="/>
     </ext>
   </extLst>
 </workbook>
@@ -24,7 +24,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="E11">
+    <comment authorId="0" ref="F11">
       <text>
         <t xml:space="preserve">JM LAFARGE:
 - Clé primaire ID_CODCAL, ID_DATDEB, DT_DATFIN
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -58,16 +58,22 @@
     <t>JM Lafarge</t>
   </si>
   <si>
-    <t>DRAFT</t>
+    <t>Création de l'onglet 001 pour la table CAL</t>
   </si>
   <si>
     <t>Version de Mainta pour laquelle le JDD de référence est validé</t>
+  </si>
+  <si>
+    <t>Création de l'onglet 001A pour la table CALDEF</t>
   </si>
   <si>
     <t>Onglet</t>
   </si>
   <si>
     <t>TABLE</t>
+  </si>
+  <si>
+    <t>TYPE</t>
   </si>
   <si>
     <t>Num écran</t>
@@ -85,6 +91,9 @@
     <t>Libellé des champs (colonnes)</t>
   </si>
   <si>
+    <t>PK en rouge</t>
+  </si>
+  <si>
     <t>La rubrique n'est pas présente dans l'IHM</t>
   </si>
   <si>
@@ -100,6 +109,9 @@
     <t>Code calendrier</t>
   </si>
   <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
     <t>OK</t>
   </si>
   <si>
@@ -109,10 +121,16 @@
     <t>Désignation</t>
   </si>
   <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
     <t>ST_INA</t>
   </si>
   <si>
     <t>Inactif</t>
+  </si>
+  <si>
+    <t>boolean</t>
   </si>
   <si>
     <t>ST_MOD</t>
@@ -142,6 +160,9 @@
     <t>Date de début</t>
   </si>
   <si>
+    <t>datetime</t>
+  </si>
+  <si>
     <t>Voir commentaire</t>
   </si>
   <si>
@@ -155,6 +176,9 @@
   </si>
   <si>
     <t>Disponibilité</t>
+  </si>
+  <si>
+    <t>varchar(1)</t>
   </si>
   <si>
     <t>ST_TYPJOU</t>
@@ -199,10 +223,22 @@
     <t>Heure de fin créneau horaire 3</t>
   </si>
   <si>
+    <t>RO.CAL*001*ID_CODCAL</t>
+  </si>
+  <si>
     <t>FOREIGNKEY</t>
   </si>
   <si>
+    <t>SEQUENCE</t>
+  </si>
+  <si>
     <t>LOCATOR</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>checkbox</t>
   </si>
   <si>
     <t>CAS_DE_TEST</t>
@@ -215,7 +251,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -234,8 +270,17 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="10.0"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -259,13 +304,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -274,7 +321,7 @@
     </font>
     <font>
       <b/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -346,7 +393,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border/>
     <border>
       <left style="thin">
@@ -363,6 +410,36 @@
       </bottom>
     </border>
     <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -372,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -382,17 +459,32 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -401,58 +493,79 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf quotePrefix="1" borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="7" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="9" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -684,7 +797,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="10.63"/>
-    <col customWidth="1" min="3" max="3" width="29.88"/>
+    <col customWidth="1" min="3" max="3" width="45.0"/>
     <col customWidth="1" min="4" max="4" width="10.63"/>
     <col customWidth="1" min="5" max="5" width="12.13"/>
     <col customWidth="1" min="6" max="26" width="10.63"/>
@@ -714,119 +827,125 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="A3" s="2">
+        <v>44886.0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -1830,248 +1949,304 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="16.0"/>
     <col customWidth="1" min="2" max="2" width="61.5"/>
-    <col customWidth="1" min="3" max="3" width="24.38"/>
-    <col customWidth="1" min="4" max="4" width="10.63"/>
-    <col customWidth="1" min="5" max="5" width="12.38"/>
-    <col customWidth="1" min="6" max="26" width="10.63"/>
+    <col customWidth="1" min="3" max="4" width="24.38"/>
+    <col customWidth="1" min="5" max="5" width="10.63"/>
+    <col customWidth="1" min="6" max="6" width="12.38"/>
+    <col customWidth="1" min="7" max="27" width="10.63"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="E1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="B2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="A3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="9">
         <v>1096.0</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>20</v>
+      <c r="A4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1">
+      <c r="A6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="A8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="26">
+        <v>1094.0</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B10" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="13" t="s">
+      <c r="C10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="E10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="17">
-        <v>1094.0</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>34</v>
+      <c r="A11" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>20</v>
+      <c r="A12" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>20</v>
+      <c r="A13" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>20</v>
+      <c r="E15" s="23" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>20</v>
+      <c r="A16" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>20</v>
+      <c r="A17" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>20</v>
+      <c r="A18" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>20</v>
+      <c r="A19" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>20</v>
+      <c r="A20" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1"/>
@@ -2985,3049 +3160,3068 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="16.63"/>
+    <col customWidth="1" min="2" max="2" width="19.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="A1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="21" t="s">
+      <c r="C1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>27</v>
+      <c r="D1" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="A2" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="A3" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="A4" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+      <c r="A5" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="26"/>
+      <c r="A6" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="26"/>
+      <c r="A7" s="37"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="26"/>
+      <c r="A8" s="37"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="26"/>
+      <c r="A9" s="37"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="26"/>
+      <c r="A10" s="37"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="26"/>
+      <c r="A11" s="37"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="26"/>
+      <c r="A12" s="37"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="26"/>
+      <c r="A13" s="37"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="26"/>
+      <c r="A14" s="37"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="26"/>
+      <c r="A15" s="37"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="26"/>
+      <c r="A16" s="37"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="26"/>
+      <c r="A17" s="37"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="26"/>
+      <c r="A18" s="37"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="26"/>
+      <c r="A19" s="37"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="26"/>
+      <c r="A20" s="37"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="26"/>
+      <c r="A21" s="37"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="26"/>
+      <c r="A22" s="37"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="26"/>
+      <c r="A23" s="37"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="26"/>
+      <c r="A24" s="37"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="26"/>
+      <c r="A25" s="37"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="26"/>
+      <c r="A26" s="37"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="26"/>
+      <c r="A27" s="37"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="26"/>
+      <c r="A28" s="37"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="26"/>
+      <c r="A29" s="37"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="26"/>
+      <c r="A30" s="37"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="26"/>
+      <c r="A31" s="37"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="26"/>
+      <c r="A32" s="37"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="26"/>
+      <c r="A33" s="37"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="26"/>
+      <c r="A34" s="37"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="26"/>
+      <c r="A35" s="37"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="26"/>
+      <c r="A36" s="37"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="26"/>
+      <c r="A37" s="37"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="26"/>
+      <c r="A38" s="37"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="26"/>
+      <c r="A39" s="37"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="26"/>
+      <c r="A40" s="37"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="26"/>
+      <c r="A41" s="37"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="26"/>
+      <c r="A42" s="37"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="26"/>
+      <c r="A43" s="37"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="26"/>
+      <c r="A44" s="37"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="26"/>
+      <c r="A45" s="37"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="26"/>
+      <c r="A46" s="37"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="26"/>
+      <c r="A47" s="37"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="26"/>
+      <c r="A48" s="37"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="26"/>
+      <c r="A49" s="37"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="26"/>
+      <c r="A50" s="37"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="26"/>
+      <c r="A51" s="37"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="26"/>
+      <c r="A52" s="37"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="26"/>
+      <c r="A53" s="37"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="26"/>
+      <c r="A54" s="37"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="26"/>
+      <c r="A55" s="37"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="26"/>
+      <c r="A56" s="37"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="26"/>
+      <c r="A57" s="37"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="26"/>
+      <c r="A58" s="37"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="26"/>
+      <c r="A59" s="37"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="26"/>
+      <c r="A60" s="37"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="26"/>
+      <c r="A61" s="37"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="26"/>
+      <c r="A62" s="37"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="26"/>
+      <c r="A63" s="37"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="26"/>
+      <c r="A64" s="37"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="26"/>
+      <c r="A65" s="37"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="26"/>
+      <c r="A66" s="37"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="26"/>
+      <c r="A67" s="37"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="26"/>
+      <c r="A68" s="37"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="26"/>
+      <c r="A69" s="37"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="26"/>
+      <c r="A70" s="37"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="26"/>
+      <c r="A71" s="37"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="26"/>
+      <c r="A72" s="37"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="26"/>
+      <c r="A73" s="37"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="26"/>
+      <c r="A74" s="37"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="26"/>
+      <c r="A75" s="37"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="26"/>
+      <c r="A76" s="37"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="26"/>
+      <c r="A77" s="37"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="26"/>
+      <c r="A78" s="37"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="26"/>
+      <c r="A79" s="37"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="26"/>
+      <c r="A80" s="37"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="26"/>
+      <c r="A81" s="37"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="26"/>
+      <c r="A82" s="37"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="26"/>
+      <c r="A83" s="37"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="26"/>
+      <c r="A84" s="37"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="26"/>
+      <c r="A85" s="37"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="26"/>
+      <c r="A86" s="37"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="26"/>
+      <c r="A87" s="37"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="26"/>
+      <c r="A88" s="37"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="26"/>
+      <c r="A89" s="37"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="26"/>
+      <c r="A90" s="37"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="26"/>
+      <c r="A91" s="37"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="26"/>
+      <c r="A92" s="37"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="26"/>
+      <c r="A93" s="37"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="26"/>
+      <c r="A94" s="37"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="26"/>
+      <c r="A95" s="37"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="26"/>
+      <c r="A96" s="37"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="26"/>
+      <c r="A97" s="37"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="26"/>
+      <c r="A98" s="37"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="26"/>
+      <c r="A99" s="37"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="26"/>
+      <c r="A100" s="37"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="26"/>
+      <c r="A101" s="37"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="26"/>
+      <c r="A102" s="37"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="26"/>
+      <c r="A103" s="37"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="26"/>
+      <c r="A104" s="37"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="26"/>
+      <c r="A105" s="37"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="26"/>
+      <c r="A106" s="37"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="26"/>
+      <c r="A107" s="37"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="26"/>
+      <c r="A108" s="37"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="26"/>
+      <c r="A109" s="37"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="26"/>
+      <c r="A110" s="37"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="26"/>
+      <c r="A111" s="37"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="26"/>
+      <c r="A112" s="37"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="26"/>
+      <c r="A113" s="37"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="26"/>
+      <c r="A114" s="37"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="26"/>
+      <c r="A115" s="37"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="26"/>
+      <c r="A116" s="37"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="26"/>
+      <c r="A117" s="37"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="26"/>
+      <c r="A118" s="37"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="26"/>
+      <c r="A119" s="37"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="26"/>
+      <c r="A120" s="37"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="26"/>
+      <c r="A121" s="37"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="26"/>
+      <c r="A122" s="37"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="26"/>
+      <c r="A123" s="37"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="26"/>
+      <c r="A124" s="37"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="26"/>
+      <c r="A125" s="37"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="26"/>
+      <c r="A126" s="37"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="26"/>
+      <c r="A127" s="37"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="26"/>
+      <c r="A128" s="37"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="26"/>
+      <c r="A129" s="37"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="26"/>
+      <c r="A130" s="37"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="26"/>
+      <c r="A131" s="37"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="26"/>
+      <c r="A132" s="37"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="26"/>
+      <c r="A133" s="37"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="26"/>
+      <c r="A134" s="37"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="26"/>
+      <c r="A135" s="37"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="26"/>
+      <c r="A136" s="37"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="26"/>
+      <c r="A137" s="37"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="26"/>
+      <c r="A138" s="37"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="26"/>
+      <c r="A139" s="37"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="26"/>
+      <c r="A140" s="37"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="26"/>
+      <c r="A141" s="37"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="26"/>
+      <c r="A142" s="37"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="26"/>
+      <c r="A143" s="37"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="26"/>
+      <c r="A144" s="37"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="26"/>
+      <c r="A145" s="37"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="26"/>
+      <c r="A146" s="37"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="26"/>
+      <c r="A147" s="37"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="26"/>
+      <c r="A148" s="37"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="26"/>
+      <c r="A149" s="37"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="26"/>
+      <c r="A150" s="37"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="26"/>
+      <c r="A151" s="37"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="26"/>
+      <c r="A152" s="37"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="26"/>
+      <c r="A153" s="37"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="26"/>
+      <c r="A154" s="37"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="26"/>
+      <c r="A155" s="37"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="26"/>
+      <c r="A156" s="37"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="26"/>
+      <c r="A157" s="37"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="26"/>
+      <c r="A158" s="37"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="26"/>
+      <c r="A159" s="37"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="26"/>
+      <c r="A160" s="37"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="26"/>
+      <c r="A161" s="37"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="26"/>
+      <c r="A162" s="37"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="26"/>
+      <c r="A163" s="37"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="26"/>
+      <c r="A164" s="37"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="26"/>
+      <c r="A165" s="37"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="26"/>
+      <c r="A166" s="37"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="26"/>
+      <c r="A167" s="37"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="26"/>
+      <c r="A168" s="37"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="26"/>
+      <c r="A169" s="37"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="26"/>
+      <c r="A170" s="37"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="26"/>
+      <c r="A171" s="37"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="26"/>
+      <c r="A172" s="37"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="26"/>
+      <c r="A173" s="37"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="26"/>
+      <c r="A174" s="37"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="26"/>
+      <c r="A175" s="37"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="26"/>
+      <c r="A176" s="37"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="26"/>
+      <c r="A177" s="37"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="26"/>
+      <c r="A178" s="37"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="26"/>
+      <c r="A179" s="37"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="26"/>
+      <c r="A180" s="37"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="26"/>
+      <c r="A181" s="37"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="26"/>
+      <c r="A182" s="37"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="26"/>
+      <c r="A183" s="37"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="26"/>
+      <c r="A184" s="37"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="26"/>
+      <c r="A185" s="37"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="26"/>
+      <c r="A186" s="37"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="26"/>
+      <c r="A187" s="37"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="26"/>
+      <c r="A188" s="37"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="26"/>
+      <c r="A189" s="37"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="26"/>
+      <c r="A190" s="37"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="26"/>
+      <c r="A191" s="37"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="26"/>
+      <c r="A192" s="37"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="26"/>
+      <c r="A193" s="37"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="26"/>
+      <c r="A194" s="37"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="26"/>
+      <c r="A195" s="37"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="26"/>
+      <c r="A196" s="37"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="26"/>
+      <c r="A197" s="37"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="26"/>
+      <c r="A198" s="37"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="26"/>
+      <c r="A199" s="37"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="26"/>
+      <c r="A200" s="37"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="26"/>
+      <c r="A201" s="37"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="26"/>
+      <c r="A202" s="37"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="26"/>
+      <c r="A203" s="37"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="26"/>
+      <c r="A204" s="37"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="26"/>
+      <c r="A205" s="37"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="26"/>
+      <c r="A206" s="37"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="26"/>
+      <c r="A207" s="37"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="26"/>
+      <c r="A208" s="37"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="26"/>
+      <c r="A209" s="37"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="26"/>
+      <c r="A210" s="37"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="26"/>
+      <c r="A211" s="37"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="26"/>
+      <c r="A212" s="37"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="26"/>
+      <c r="A213" s="37"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="26"/>
+      <c r="A214" s="37"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="26"/>
+      <c r="A215" s="37"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="26"/>
+      <c r="A216" s="37"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="26"/>
+      <c r="A217" s="37"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="26"/>
+      <c r="A218" s="37"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="26"/>
+      <c r="A219" s="37"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="26"/>
+      <c r="A220" s="37"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="26"/>
+      <c r="A221" s="37"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="26"/>
+      <c r="A222" s="37"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="26"/>
+      <c r="A223" s="37"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="26"/>
+      <c r="A224" s="37"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="26"/>
+      <c r="A225" s="37"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="26"/>
+      <c r="A226" s="37"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="26"/>
+      <c r="A227" s="37"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="26"/>
+      <c r="A228" s="37"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="26"/>
+      <c r="A229" s="37"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="26"/>
+      <c r="A230" s="37"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="26"/>
+      <c r="A231" s="37"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="26"/>
+      <c r="A232" s="37"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="26"/>
+      <c r="A233" s="37"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="26"/>
+      <c r="A234" s="37"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="26"/>
+      <c r="A235" s="37"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="26"/>
+      <c r="A236" s="37"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="26"/>
+      <c r="A237" s="37"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="26"/>
+      <c r="A238" s="37"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="26"/>
+      <c r="A239" s="37"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="26"/>
+      <c r="A240" s="37"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="26"/>
+      <c r="A241" s="37"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="26"/>
+      <c r="A242" s="37"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="26"/>
+      <c r="A243" s="37"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="26"/>
+      <c r="A244" s="37"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="26"/>
+      <c r="A245" s="37"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="26"/>
+      <c r="A246" s="37"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="26"/>
+      <c r="A247" s="37"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="26"/>
+      <c r="A248" s="37"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="26"/>
+      <c r="A249" s="37"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="26"/>
+      <c r="A250" s="37"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="26"/>
+      <c r="A251" s="37"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="26"/>
+      <c r="A252" s="37"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="26"/>
+      <c r="A253" s="37"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="26"/>
+      <c r="A254" s="37"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="26"/>
+      <c r="A255" s="37"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="26"/>
+      <c r="A256" s="37"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="26"/>
+      <c r="A257" s="37"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="26"/>
+      <c r="A258" s="37"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="26"/>
+      <c r="A259" s="37"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="26"/>
+      <c r="A260" s="37"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="26"/>
+      <c r="A261" s="37"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="26"/>
+      <c r="A262" s="37"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="26"/>
+      <c r="A263" s="37"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="26"/>
+      <c r="A264" s="37"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="26"/>
+      <c r="A265" s="37"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="26"/>
+      <c r="A266" s="37"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="26"/>
+      <c r="A267" s="37"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="26"/>
+      <c r="A268" s="37"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="26"/>
+      <c r="A269" s="37"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="26"/>
+      <c r="A270" s="37"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="26"/>
+      <c r="A271" s="37"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="26"/>
+      <c r="A272" s="37"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="26"/>
+      <c r="A273" s="37"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="26"/>
+      <c r="A274" s="37"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="26"/>
+      <c r="A275" s="37"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="26"/>
+      <c r="A276" s="37"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="26"/>
+      <c r="A277" s="37"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="26"/>
+      <c r="A278" s="37"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="26"/>
+      <c r="A279" s="37"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="26"/>
+      <c r="A280" s="37"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="26"/>
+      <c r="A281" s="37"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="26"/>
+      <c r="A282" s="37"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="26"/>
+      <c r="A283" s="37"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="26"/>
+      <c r="A284" s="37"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="26"/>
+      <c r="A285" s="37"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="26"/>
+      <c r="A286" s="37"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="26"/>
+      <c r="A287" s="37"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="26"/>
+      <c r="A288" s="37"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="26"/>
+      <c r="A289" s="37"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="26"/>
+      <c r="A290" s="37"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="26"/>
+      <c r="A291" s="37"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="26"/>
+      <c r="A292" s="37"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="26"/>
+      <c r="A293" s="37"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="26"/>
+      <c r="A294" s="37"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="26"/>
+      <c r="A295" s="37"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="26"/>
+      <c r="A296" s="37"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="26"/>
+      <c r="A297" s="37"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="26"/>
+      <c r="A298" s="37"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="26"/>
+      <c r="A299" s="37"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="26"/>
+      <c r="A300" s="37"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="26"/>
+      <c r="A301" s="37"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="26"/>
+      <c r="A302" s="37"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="26"/>
+      <c r="A303" s="37"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="26"/>
+      <c r="A304" s="37"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="26"/>
+      <c r="A305" s="37"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="26"/>
+      <c r="A306" s="37"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="26"/>
+      <c r="A307" s="37"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="26"/>
+      <c r="A308" s="37"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="26"/>
+      <c r="A309" s="37"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="26"/>
+      <c r="A310" s="37"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="26"/>
+      <c r="A311" s="37"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="26"/>
+      <c r="A312" s="37"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="26"/>
+      <c r="A313" s="37"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="26"/>
+      <c r="A314" s="37"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="26"/>
+      <c r="A315" s="37"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="26"/>
+      <c r="A316" s="37"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="26"/>
+      <c r="A317" s="37"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="26"/>
+      <c r="A318" s="37"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="26"/>
+      <c r="A319" s="37"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="26"/>
+      <c r="A320" s="37"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="26"/>
+      <c r="A321" s="37"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="26"/>
+      <c r="A322" s="37"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="26"/>
+      <c r="A323" s="37"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="26"/>
+      <c r="A324" s="37"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="26"/>
+      <c r="A325" s="37"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="26"/>
+      <c r="A326" s="37"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="26"/>
+      <c r="A327" s="37"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="26"/>
+      <c r="A328" s="37"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="26"/>
+      <c r="A329" s="37"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="26"/>
+      <c r="A330" s="37"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="26"/>
+      <c r="A331" s="37"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="26"/>
+      <c r="A332" s="37"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="26"/>
+      <c r="A333" s="37"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="26"/>
+      <c r="A334" s="37"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="26"/>
+      <c r="A335" s="37"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="26"/>
+      <c r="A336" s="37"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="26"/>
+      <c r="A337" s="37"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="26"/>
+      <c r="A338" s="37"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="26"/>
+      <c r="A339" s="37"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="26"/>
+      <c r="A340" s="37"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="26"/>
+      <c r="A341" s="37"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="26"/>
+      <c r="A342" s="37"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="26"/>
+      <c r="A343" s="37"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="26"/>
+      <c r="A344" s="37"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="26"/>
+      <c r="A345" s="37"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="26"/>
+      <c r="A346" s="37"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="26"/>
+      <c r="A347" s="37"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="26"/>
+      <c r="A348" s="37"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="26"/>
+      <c r="A349" s="37"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="A350" s="26"/>
+      <c r="A350" s="37"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="26"/>
+      <c r="A351" s="37"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="26"/>
+      <c r="A352" s="37"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="26"/>
+      <c r="A353" s="37"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="A354" s="26"/>
+      <c r="A354" s="37"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="A355" s="26"/>
+      <c r="A355" s="37"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="A356" s="26"/>
+      <c r="A356" s="37"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="A357" s="26"/>
+      <c r="A357" s="37"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="26"/>
+      <c r="A358" s="37"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="A359" s="26"/>
+      <c r="A359" s="37"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="A360" s="26"/>
+      <c r="A360" s="37"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="A361" s="26"/>
+      <c r="A361" s="37"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="A362" s="26"/>
+      <c r="A362" s="37"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="A363" s="26"/>
+      <c r="A363" s="37"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="A364" s="26"/>
+      <c r="A364" s="37"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="A365" s="26"/>
+      <c r="A365" s="37"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="A366" s="26"/>
+      <c r="A366" s="37"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="A367" s="26"/>
+      <c r="A367" s="37"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="A368" s="26"/>
+      <c r="A368" s="37"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="A369" s="26"/>
+      <c r="A369" s="37"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="A370" s="26"/>
+      <c r="A370" s="37"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="A371" s="26"/>
+      <c r="A371" s="37"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="A372" s="26"/>
+      <c r="A372" s="37"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="A373" s="26"/>
+      <c r="A373" s="37"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="A374" s="26"/>
+      <c r="A374" s="37"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="A375" s="26"/>
+      <c r="A375" s="37"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="A376" s="26"/>
+      <c r="A376" s="37"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="A377" s="26"/>
+      <c r="A377" s="37"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="A378" s="26"/>
+      <c r="A378" s="37"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="A379" s="26"/>
+      <c r="A379" s="37"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="A380" s="26"/>
+      <c r="A380" s="37"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="A381" s="26"/>
+      <c r="A381" s="37"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="A382" s="26"/>
+      <c r="A382" s="37"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="A383" s="26"/>
+      <c r="A383" s="37"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="A384" s="26"/>
+      <c r="A384" s="37"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="A385" s="26"/>
+      <c r="A385" s="37"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="A386" s="26"/>
+      <c r="A386" s="37"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="A387" s="26"/>
+      <c r="A387" s="37"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="A388" s="26"/>
+      <c r="A388" s="37"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="A389" s="26"/>
+      <c r="A389" s="37"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="A390" s="26"/>
+      <c r="A390" s="37"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="A391" s="26"/>
+      <c r="A391" s="37"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="A392" s="26"/>
+      <c r="A392" s="37"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="A393" s="26"/>
+      <c r="A393" s="37"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="A394" s="26"/>
+      <c r="A394" s="37"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="A395" s="26"/>
+      <c r="A395" s="37"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="A396" s="26"/>
+      <c r="A396" s="37"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="A397" s="26"/>
+      <c r="A397" s="37"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="A398" s="26"/>
+      <c r="A398" s="37"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="A399" s="26"/>
+      <c r="A399" s="37"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="A400" s="26"/>
+      <c r="A400" s="37"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="A401" s="26"/>
+      <c r="A401" s="37"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="A402" s="26"/>
+      <c r="A402" s="37"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="A403" s="26"/>
+      <c r="A403" s="37"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="A404" s="26"/>
+      <c r="A404" s="37"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="A405" s="26"/>
+      <c r="A405" s="37"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="A406" s="26"/>
+      <c r="A406" s="37"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="A407" s="26"/>
+      <c r="A407" s="37"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="A408" s="26"/>
+      <c r="A408" s="37"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="A409" s="26"/>
+      <c r="A409" s="37"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="A410" s="26"/>
+      <c r="A410" s="37"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="A411" s="26"/>
+      <c r="A411" s="37"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="A412" s="26"/>
+      <c r="A412" s="37"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="A413" s="26"/>
+      <c r="A413" s="37"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="A414" s="26"/>
+      <c r="A414" s="37"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="A415" s="26"/>
+      <c r="A415" s="37"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="A416" s="26"/>
+      <c r="A416" s="37"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="A417" s="26"/>
+      <c r="A417" s="37"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="A418" s="26"/>
+      <c r="A418" s="37"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="A419" s="26"/>
+      <c r="A419" s="37"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="A420" s="26"/>
+      <c r="A420" s="37"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="A421" s="26"/>
+      <c r="A421" s="37"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="A422" s="26"/>
+      <c r="A422" s="37"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="A423" s="26"/>
+      <c r="A423" s="37"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="A424" s="26"/>
+      <c r="A424" s="37"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="A425" s="26"/>
+      <c r="A425" s="37"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="A426" s="26"/>
+      <c r="A426" s="37"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="A427" s="26"/>
+      <c r="A427" s="37"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="A428" s="26"/>
+      <c r="A428" s="37"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="A429" s="26"/>
+      <c r="A429" s="37"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="A430" s="26"/>
+      <c r="A430" s="37"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="A431" s="26"/>
+      <c r="A431" s="37"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="A432" s="26"/>
+      <c r="A432" s="37"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="A433" s="26"/>
+      <c r="A433" s="37"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="A434" s="26"/>
+      <c r="A434" s="37"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="A435" s="26"/>
+      <c r="A435" s="37"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="A436" s="26"/>
+      <c r="A436" s="37"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="A437" s="26"/>
+      <c r="A437" s="37"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="A438" s="26"/>
+      <c r="A438" s="37"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="A439" s="26"/>
+      <c r="A439" s="37"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="A440" s="26"/>
+      <c r="A440" s="37"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="A441" s="26"/>
+      <c r="A441" s="37"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="A442" s="26"/>
+      <c r="A442" s="37"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="A443" s="26"/>
+      <c r="A443" s="37"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="A444" s="26"/>
+      <c r="A444" s="37"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="A445" s="26"/>
+      <c r="A445" s="37"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="A446" s="26"/>
+      <c r="A446" s="37"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="A447" s="26"/>
+      <c r="A447" s="37"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="A448" s="26"/>
+      <c r="A448" s="37"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="A449" s="26"/>
+      <c r="A449" s="37"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="A450" s="26"/>
+      <c r="A450" s="37"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="A451" s="26"/>
+      <c r="A451" s="37"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="A452" s="26"/>
+      <c r="A452" s="37"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="A453" s="26"/>
+      <c r="A453" s="37"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="A454" s="26"/>
+      <c r="A454" s="37"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="A455" s="26"/>
+      <c r="A455" s="37"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="A456" s="26"/>
+      <c r="A456" s="37"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="A457" s="26"/>
+      <c r="A457" s="37"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="A458" s="26"/>
+      <c r="A458" s="37"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="A459" s="26"/>
+      <c r="A459" s="37"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="A460" s="26"/>
+      <c r="A460" s="37"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="A461" s="26"/>
+      <c r="A461" s="37"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="A462" s="26"/>
+      <c r="A462" s="37"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="A463" s="26"/>
+      <c r="A463" s="37"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="A464" s="26"/>
+      <c r="A464" s="37"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="A465" s="26"/>
+      <c r="A465" s="37"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="A466" s="26"/>
+      <c r="A466" s="37"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="A467" s="26"/>
+      <c r="A467" s="37"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="A468" s="26"/>
+      <c r="A468" s="37"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="A469" s="26"/>
+      <c r="A469" s="37"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="A470" s="26"/>
+      <c r="A470" s="37"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="A471" s="26"/>
+      <c r="A471" s="37"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="A472" s="26"/>
+      <c r="A472" s="37"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="A473" s="26"/>
+      <c r="A473" s="37"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="A474" s="26"/>
+      <c r="A474" s="37"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="A475" s="26"/>
+      <c r="A475" s="37"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="A476" s="26"/>
+      <c r="A476" s="37"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="A477" s="26"/>
+      <c r="A477" s="37"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="A478" s="26"/>
+      <c r="A478" s="37"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="A479" s="26"/>
+      <c r="A479" s="37"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="A480" s="26"/>
+      <c r="A480" s="37"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="A481" s="26"/>
+      <c r="A481" s="37"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="A482" s="26"/>
+      <c r="A482" s="37"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="A483" s="26"/>
+      <c r="A483" s="37"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="A484" s="26"/>
+      <c r="A484" s="37"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="A485" s="26"/>
+      <c r="A485" s="37"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="A486" s="26"/>
+      <c r="A486" s="37"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="A487" s="26"/>
+      <c r="A487" s="37"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="A488" s="26"/>
+      <c r="A488" s="37"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="A489" s="26"/>
+      <c r="A489" s="37"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="A490" s="26"/>
+      <c r="A490" s="37"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="A491" s="26"/>
+      <c r="A491" s="37"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="A492" s="26"/>
+      <c r="A492" s="37"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="A493" s="26"/>
+      <c r="A493" s="37"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="A494" s="26"/>
+      <c r="A494" s="37"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="A495" s="26"/>
+      <c r="A495" s="37"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="A496" s="26"/>
+      <c r="A496" s="37"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="A497" s="26"/>
+      <c r="A497" s="37"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="A498" s="26"/>
+      <c r="A498" s="37"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="A499" s="26"/>
+      <c r="A499" s="37"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="A500" s="26"/>
+      <c r="A500" s="37"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="A501" s="26"/>
+      <c r="A501" s="37"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="A502" s="26"/>
+      <c r="A502" s="37"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="A503" s="26"/>
+      <c r="A503" s="37"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="A504" s="26"/>
+      <c r="A504" s="37"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="A505" s="26"/>
+      <c r="A505" s="37"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="A506" s="26"/>
+      <c r="A506" s="37"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="A507" s="26"/>
+      <c r="A507" s="37"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="A508" s="26"/>
+      <c r="A508" s="37"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="A509" s="26"/>
+      <c r="A509" s="37"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="A510" s="26"/>
+      <c r="A510" s="37"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="A511" s="26"/>
+      <c r="A511" s="37"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="A512" s="26"/>
+      <c r="A512" s="37"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="A513" s="26"/>
+      <c r="A513" s="37"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="A514" s="26"/>
+      <c r="A514" s="37"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="A515" s="26"/>
+      <c r="A515" s="37"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="A516" s="26"/>
+      <c r="A516" s="37"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="A517" s="26"/>
+      <c r="A517" s="37"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="A518" s="26"/>
+      <c r="A518" s="37"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="A519" s="26"/>
+      <c r="A519" s="37"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="A520" s="26"/>
+      <c r="A520" s="37"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="A521" s="26"/>
+      <c r="A521" s="37"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="A522" s="26"/>
+      <c r="A522" s="37"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="A523" s="26"/>
+      <c r="A523" s="37"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="A524" s="26"/>
+      <c r="A524" s="37"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="A525" s="26"/>
+      <c r="A525" s="37"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="A526" s="26"/>
+      <c r="A526" s="37"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="A527" s="26"/>
+      <c r="A527" s="37"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="A528" s="26"/>
+      <c r="A528" s="37"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="A529" s="26"/>
+      <c r="A529" s="37"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="A530" s="26"/>
+      <c r="A530" s="37"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="A531" s="26"/>
+      <c r="A531" s="37"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="A532" s="26"/>
+      <c r="A532" s="37"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="A533" s="26"/>
+      <c r="A533" s="37"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="A534" s="26"/>
+      <c r="A534" s="37"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="A535" s="26"/>
+      <c r="A535" s="37"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="A536" s="26"/>
+      <c r="A536" s="37"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="A537" s="26"/>
+      <c r="A537" s="37"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="A538" s="26"/>
+      <c r="A538" s="37"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="A539" s="26"/>
+      <c r="A539" s="37"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="A540" s="26"/>
+      <c r="A540" s="37"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="A541" s="26"/>
+      <c r="A541" s="37"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="A542" s="26"/>
+      <c r="A542" s="37"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="A543" s="26"/>
+      <c r="A543" s="37"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="A544" s="26"/>
+      <c r="A544" s="37"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="A545" s="26"/>
+      <c r="A545" s="37"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="A546" s="26"/>
+      <c r="A546" s="37"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="A547" s="26"/>
+      <c r="A547" s="37"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="A548" s="26"/>
+      <c r="A548" s="37"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="A549" s="26"/>
+      <c r="A549" s="37"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="A550" s="26"/>
+      <c r="A550" s="37"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="A551" s="26"/>
+      <c r="A551" s="37"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="A552" s="26"/>
+      <c r="A552" s="37"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="A553" s="26"/>
+      <c r="A553" s="37"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="A554" s="26"/>
+      <c r="A554" s="37"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="A555" s="26"/>
+      <c r="A555" s="37"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="A556" s="26"/>
+      <c r="A556" s="37"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="A557" s="26"/>
+      <c r="A557" s="37"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="A558" s="26"/>
+      <c r="A558" s="37"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="A559" s="26"/>
+      <c r="A559" s="37"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="A560" s="26"/>
+      <c r="A560" s="37"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="A561" s="26"/>
+      <c r="A561" s="37"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="A562" s="26"/>
+      <c r="A562" s="37"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="A563" s="26"/>
+      <c r="A563" s="37"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="A564" s="26"/>
+      <c r="A564" s="37"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="A565" s="26"/>
+      <c r="A565" s="37"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="A566" s="26"/>
+      <c r="A566" s="37"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="A567" s="26"/>
+      <c r="A567" s="37"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="A568" s="26"/>
+      <c r="A568" s="37"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="A569" s="26"/>
+      <c r="A569" s="37"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="A570" s="26"/>
+      <c r="A570" s="37"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="A571" s="26"/>
+      <c r="A571" s="37"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="A572" s="26"/>
+      <c r="A572" s="37"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="A573" s="26"/>
+      <c r="A573" s="37"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="A574" s="26"/>
+      <c r="A574" s="37"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="A575" s="26"/>
+      <c r="A575" s="37"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="A576" s="26"/>
+      <c r="A576" s="37"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="A577" s="26"/>
+      <c r="A577" s="37"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="A578" s="26"/>
+      <c r="A578" s="37"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="A579" s="26"/>
+      <c r="A579" s="37"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="A580" s="26"/>
+      <c r="A580" s="37"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="A581" s="26"/>
+      <c r="A581" s="37"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="A582" s="26"/>
+      <c r="A582" s="37"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="A583" s="26"/>
+      <c r="A583" s="37"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="A584" s="26"/>
+      <c r="A584" s="37"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="A585" s="26"/>
+      <c r="A585" s="37"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="A586" s="26"/>
+      <c r="A586" s="37"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="A587" s="26"/>
+      <c r="A587" s="37"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="A588" s="26"/>
+      <c r="A588" s="37"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="A589" s="26"/>
+      <c r="A589" s="37"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="A590" s="26"/>
+      <c r="A590" s="37"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="A591" s="26"/>
+      <c r="A591" s="37"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="A592" s="26"/>
+      <c r="A592" s="37"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="A593" s="26"/>
+      <c r="A593" s="37"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="A594" s="26"/>
+      <c r="A594" s="37"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="A595" s="26"/>
+      <c r="A595" s="37"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="A596" s="26"/>
+      <c r="A596" s="37"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="A597" s="26"/>
+      <c r="A597" s="37"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="A598" s="26"/>
+      <c r="A598" s="37"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="A599" s="26"/>
+      <c r="A599" s="37"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="A600" s="26"/>
+      <c r="A600" s="37"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="A601" s="26"/>
+      <c r="A601" s="37"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="A602" s="26"/>
+      <c r="A602" s="37"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="A603" s="26"/>
+      <c r="A603" s="37"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="A604" s="26"/>
+      <c r="A604" s="37"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="A605" s="26"/>
+      <c r="A605" s="37"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="A606" s="26"/>
+      <c r="A606" s="37"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="A607" s="26"/>
+      <c r="A607" s="37"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="A608" s="26"/>
+      <c r="A608" s="37"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="A609" s="26"/>
+      <c r="A609" s="37"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="A610" s="26"/>
+      <c r="A610" s="37"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="A611" s="26"/>
+      <c r="A611" s="37"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="A612" s="26"/>
+      <c r="A612" s="37"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="A613" s="26"/>
+      <c r="A613" s="37"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="A614" s="26"/>
+      <c r="A614" s="37"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="A615" s="26"/>
+      <c r="A615" s="37"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="A616" s="26"/>
+      <c r="A616" s="37"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="A617" s="26"/>
+      <c r="A617" s="37"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="A618" s="26"/>
+      <c r="A618" s="37"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="A619" s="26"/>
+      <c r="A619" s="37"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="A620" s="26"/>
+      <c r="A620" s="37"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="A621" s="26"/>
+      <c r="A621" s="37"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="A622" s="26"/>
+      <c r="A622" s="37"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="A623" s="26"/>
+      <c r="A623" s="37"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="A624" s="26"/>
+      <c r="A624" s="37"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="A625" s="26"/>
+      <c r="A625" s="37"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="A626" s="26"/>
+      <c r="A626" s="37"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="A627" s="26"/>
+      <c r="A627" s="37"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="A628" s="26"/>
+      <c r="A628" s="37"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="A629" s="26"/>
+      <c r="A629" s="37"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="A630" s="26"/>
+      <c r="A630" s="37"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="A631" s="26"/>
+      <c r="A631" s="37"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="A632" s="26"/>
+      <c r="A632" s="37"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="A633" s="26"/>
+      <c r="A633" s="37"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="A634" s="26"/>
+      <c r="A634" s="37"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="A635" s="26"/>
+      <c r="A635" s="37"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="A636" s="26"/>
+      <c r="A636" s="37"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="A637" s="26"/>
+      <c r="A637" s="37"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="A638" s="26"/>
+      <c r="A638" s="37"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="A639" s="26"/>
+      <c r="A639" s="37"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="A640" s="26"/>
+      <c r="A640" s="37"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="A641" s="26"/>
+      <c r="A641" s="37"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="A642" s="26"/>
+      <c r="A642" s="37"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="A643" s="26"/>
+      <c r="A643" s="37"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="A644" s="26"/>
+      <c r="A644" s="37"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="A645" s="26"/>
+      <c r="A645" s="37"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="A646" s="26"/>
+      <c r="A646" s="37"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="A647" s="26"/>
+      <c r="A647" s="37"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="A648" s="26"/>
+      <c r="A648" s="37"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="A649" s="26"/>
+      <c r="A649" s="37"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="A650" s="26"/>
+      <c r="A650" s="37"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="A651" s="26"/>
+      <c r="A651" s="37"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="A652" s="26"/>
+      <c r="A652" s="37"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="A653" s="26"/>
+      <c r="A653" s="37"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="A654" s="26"/>
+      <c r="A654" s="37"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="A655" s="26"/>
+      <c r="A655" s="37"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="A656" s="26"/>
+      <c r="A656" s="37"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="A657" s="26"/>
+      <c r="A657" s="37"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="A658" s="26"/>
+      <c r="A658" s="37"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="A659" s="26"/>
+      <c r="A659" s="37"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="A660" s="26"/>
+      <c r="A660" s="37"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="A661" s="26"/>
+      <c r="A661" s="37"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="A662" s="26"/>
+      <c r="A662" s="37"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="A663" s="26"/>
+      <c r="A663" s="37"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="A664" s="26"/>
+      <c r="A664" s="37"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="A665" s="26"/>
+      <c r="A665" s="37"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="A666" s="26"/>
+      <c r="A666" s="37"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="A667" s="26"/>
+      <c r="A667" s="37"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="A668" s="26"/>
+      <c r="A668" s="37"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="A669" s="26"/>
+      <c r="A669" s="37"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="A670" s="26"/>
+      <c r="A670" s="37"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="A671" s="26"/>
+      <c r="A671" s="37"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="A672" s="26"/>
+      <c r="A672" s="37"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="A673" s="26"/>
+      <c r="A673" s="37"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="A674" s="26"/>
+      <c r="A674" s="37"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="A675" s="26"/>
+      <c r="A675" s="37"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="A676" s="26"/>
+      <c r="A676" s="37"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="A677" s="26"/>
+      <c r="A677" s="37"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="A678" s="26"/>
+      <c r="A678" s="37"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="A679" s="26"/>
+      <c r="A679" s="37"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="A680" s="26"/>
+      <c r="A680" s="37"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="A681" s="26"/>
+      <c r="A681" s="37"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="A682" s="26"/>
+      <c r="A682" s="37"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="A683" s="26"/>
+      <c r="A683" s="37"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="A684" s="26"/>
+      <c r="A684" s="37"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="A685" s="26"/>
+      <c r="A685" s="37"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="A686" s="26"/>
+      <c r="A686" s="37"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="A687" s="26"/>
+      <c r="A687" s="37"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="A688" s="26"/>
+      <c r="A688" s="37"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="A689" s="26"/>
+      <c r="A689" s="37"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="A690" s="26"/>
+      <c r="A690" s="37"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="A691" s="26"/>
+      <c r="A691" s="37"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="A692" s="26"/>
+      <c r="A692" s="37"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="A693" s="26"/>
+      <c r="A693" s="37"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="A694" s="26"/>
+      <c r="A694" s="37"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="A695" s="26"/>
+      <c r="A695" s="37"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="A696" s="26"/>
+      <c r="A696" s="37"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="A697" s="26"/>
+      <c r="A697" s="37"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="A698" s="26"/>
+      <c r="A698" s="37"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="A699" s="26"/>
+      <c r="A699" s="37"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="A700" s="26"/>
+      <c r="A700" s="37"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="A701" s="26"/>
+      <c r="A701" s="37"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="A702" s="26"/>
+      <c r="A702" s="37"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="A703" s="26"/>
+      <c r="A703" s="37"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="A704" s="26"/>
+      <c r="A704" s="37"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="A705" s="26"/>
+      <c r="A705" s="37"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="A706" s="26"/>
+      <c r="A706" s="37"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="A707" s="26"/>
+      <c r="A707" s="37"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="A708" s="26"/>
+      <c r="A708" s="37"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="A709" s="26"/>
+      <c r="A709" s="37"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="A710" s="26"/>
+      <c r="A710" s="37"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="A711" s="26"/>
+      <c r="A711" s="37"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="A712" s="26"/>
+      <c r="A712" s="37"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="A713" s="26"/>
+      <c r="A713" s="37"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="A714" s="26"/>
+      <c r="A714" s="37"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="A715" s="26"/>
+      <c r="A715" s="37"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="A716" s="26"/>
+      <c r="A716" s="37"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="A717" s="26"/>
+      <c r="A717" s="37"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="A718" s="26"/>
+      <c r="A718" s="37"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="A719" s="26"/>
+      <c r="A719" s="37"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="A720" s="26"/>
+      <c r="A720" s="37"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="A721" s="26"/>
+      <c r="A721" s="37"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="A722" s="26"/>
+      <c r="A722" s="37"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="A723" s="26"/>
+      <c r="A723" s="37"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="A724" s="26"/>
+      <c r="A724" s="37"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="A725" s="26"/>
+      <c r="A725" s="37"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="A726" s="26"/>
+      <c r="A726" s="37"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="A727" s="26"/>
+      <c r="A727" s="37"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="A728" s="26"/>
+      <c r="A728" s="37"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="A729" s="26"/>
+      <c r="A729" s="37"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="A730" s="26"/>
+      <c r="A730" s="37"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="A731" s="26"/>
+      <c r="A731" s="37"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="A732" s="26"/>
+      <c r="A732" s="37"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="A733" s="26"/>
+      <c r="A733" s="37"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="A734" s="26"/>
+      <c r="A734" s="37"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="A735" s="26"/>
+      <c r="A735" s="37"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="A736" s="26"/>
+      <c r="A736" s="37"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="A737" s="26"/>
+      <c r="A737" s="37"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="A738" s="26"/>
+      <c r="A738" s="37"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="A739" s="26"/>
+      <c r="A739" s="37"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="A740" s="26"/>
+      <c r="A740" s="37"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="A741" s="26"/>
+      <c r="A741" s="37"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="A742" s="26"/>
+      <c r="A742" s="37"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="A743" s="26"/>
+      <c r="A743" s="37"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="A744" s="26"/>
+      <c r="A744" s="37"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="A745" s="26"/>
+      <c r="A745" s="37"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="A746" s="26"/>
+      <c r="A746" s="37"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="A747" s="26"/>
+      <c r="A747" s="37"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="A748" s="26"/>
+      <c r="A748" s="37"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="A749" s="26"/>
+      <c r="A749" s="37"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="A750" s="26"/>
+      <c r="A750" s="37"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="A751" s="26"/>
+      <c r="A751" s="37"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="A752" s="26"/>
+      <c r="A752" s="37"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="A753" s="26"/>
+      <c r="A753" s="37"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="A754" s="26"/>
+      <c r="A754" s="37"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="A755" s="26"/>
+      <c r="A755" s="37"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="A756" s="26"/>
+      <c r="A756" s="37"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="A757" s="26"/>
+      <c r="A757" s="37"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="A758" s="26"/>
+      <c r="A758" s="37"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="A759" s="26"/>
+      <c r="A759" s="37"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="A760" s="26"/>
+      <c r="A760" s="37"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="A761" s="26"/>
+      <c r="A761" s="37"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="A762" s="26"/>
+      <c r="A762" s="37"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="A763" s="26"/>
+      <c r="A763" s="37"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="A764" s="26"/>
+      <c r="A764" s="37"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="A765" s="26"/>
+      <c r="A765" s="37"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="A766" s="26"/>
+      <c r="A766" s="37"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="A767" s="26"/>
+      <c r="A767" s="37"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="A768" s="26"/>
+      <c r="A768" s="37"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="A769" s="26"/>
+      <c r="A769" s="37"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="A770" s="26"/>
+      <c r="A770" s="37"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="A771" s="26"/>
+      <c r="A771" s="37"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="A772" s="26"/>
+      <c r="A772" s="37"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="A773" s="26"/>
+      <c r="A773" s="37"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="A774" s="26"/>
+      <c r="A774" s="37"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="A775" s="26"/>
+      <c r="A775" s="37"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="A776" s="26"/>
+      <c r="A776" s="37"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="A777" s="26"/>
+      <c r="A777" s="37"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="A778" s="26"/>
+      <c r="A778" s="37"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="A779" s="26"/>
+      <c r="A779" s="37"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="A780" s="26"/>
+      <c r="A780" s="37"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="A781" s="26"/>
+      <c r="A781" s="37"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="A782" s="26"/>
+      <c r="A782" s="37"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="A783" s="26"/>
+      <c r="A783" s="37"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="A784" s="26"/>
+      <c r="A784" s="37"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="A785" s="26"/>
+      <c r="A785" s="37"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="A786" s="26"/>
+      <c r="A786" s="37"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="A787" s="26"/>
+      <c r="A787" s="37"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="A788" s="26"/>
+      <c r="A788" s="37"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="A789" s="26"/>
+      <c r="A789" s="37"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="A790" s="26"/>
+      <c r="A790" s="37"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="A791" s="26"/>
+      <c r="A791" s="37"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="A792" s="26"/>
+      <c r="A792" s="37"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="A793" s="26"/>
+      <c r="A793" s="37"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="A794" s="26"/>
+      <c r="A794" s="37"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="A795" s="26"/>
+      <c r="A795" s="37"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="A796" s="26"/>
+      <c r="A796" s="37"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="A797" s="26"/>
+      <c r="A797" s="37"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="A798" s="26"/>
+      <c r="A798" s="37"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="A799" s="26"/>
+      <c r="A799" s="37"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="A800" s="26"/>
+      <c r="A800" s="37"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="A801" s="26"/>
+      <c r="A801" s="37"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="A802" s="26"/>
+      <c r="A802" s="37"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="A803" s="26"/>
+      <c r="A803" s="37"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="A804" s="26"/>
+      <c r="A804" s="37"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="A805" s="26"/>
+      <c r="A805" s="37"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="A806" s="26"/>
+      <c r="A806" s="37"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="A807" s="26"/>
+      <c r="A807" s="37"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="A808" s="26"/>
+      <c r="A808" s="37"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="A809" s="26"/>
+      <c r="A809" s="37"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="A810" s="26"/>
+      <c r="A810" s="37"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="A811" s="26"/>
+      <c r="A811" s="37"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="A812" s="26"/>
+      <c r="A812" s="37"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="A813" s="26"/>
+      <c r="A813" s="37"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="A814" s="26"/>
+      <c r="A814" s="37"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="A815" s="26"/>
+      <c r="A815" s="37"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="A816" s="26"/>
+      <c r="A816" s="37"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="A817" s="26"/>
+      <c r="A817" s="37"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="A818" s="26"/>
+      <c r="A818" s="37"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="A819" s="26"/>
+      <c r="A819" s="37"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="A820" s="26"/>
+      <c r="A820" s="37"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="A821" s="26"/>
+      <c r="A821" s="37"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="A822" s="26"/>
+      <c r="A822" s="37"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="A823" s="26"/>
+      <c r="A823" s="37"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="A824" s="26"/>
+      <c r="A824" s="37"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="A825" s="26"/>
+      <c r="A825" s="37"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="A826" s="26"/>
+      <c r="A826" s="37"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="A827" s="26"/>
+      <c r="A827" s="37"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="A828" s="26"/>
+      <c r="A828" s="37"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="A829" s="26"/>
+      <c r="A829" s="37"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="A830" s="26"/>
+      <c r="A830" s="37"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="A831" s="26"/>
+      <c r="A831" s="37"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="A832" s="26"/>
+      <c r="A832" s="37"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="A833" s="26"/>
+      <c r="A833" s="37"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="A834" s="26"/>
+      <c r="A834" s="37"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="A835" s="26"/>
+      <c r="A835" s="37"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="A836" s="26"/>
+      <c r="A836" s="37"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="A837" s="26"/>
+      <c r="A837" s="37"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="A838" s="26"/>
+      <c r="A838" s="37"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="A839" s="26"/>
+      <c r="A839" s="37"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="A840" s="26"/>
+      <c r="A840" s="37"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="A841" s="26"/>
+      <c r="A841" s="37"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="A842" s="26"/>
+      <c r="A842" s="37"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="A843" s="26"/>
+      <c r="A843" s="37"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="A844" s="26"/>
+      <c r="A844" s="37"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="A845" s="26"/>
+      <c r="A845" s="37"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="A846" s="26"/>
+      <c r="A846" s="37"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="A847" s="26"/>
+      <c r="A847" s="37"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="A848" s="26"/>
+      <c r="A848" s="37"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="A849" s="26"/>
+      <c r="A849" s="37"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="A850" s="26"/>
+      <c r="A850" s="37"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="A851" s="26"/>
+      <c r="A851" s="37"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="A852" s="26"/>
+      <c r="A852" s="37"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="A853" s="26"/>
+      <c r="A853" s="37"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="A854" s="26"/>
+      <c r="A854" s="37"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="A855" s="26"/>
+      <c r="A855" s="37"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="A856" s="26"/>
+      <c r="A856" s="37"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="A857" s="26"/>
+      <c r="A857" s="37"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="A858" s="26"/>
+      <c r="A858" s="37"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="A859" s="26"/>
+      <c r="A859" s="37"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="A860" s="26"/>
+      <c r="A860" s="37"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="A861" s="26"/>
+      <c r="A861" s="37"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="A862" s="26"/>
+      <c r="A862" s="37"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="A863" s="26"/>
+      <c r="A863" s="37"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="A864" s="26"/>
+      <c r="A864" s="37"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="A865" s="26"/>
+      <c r="A865" s="37"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="A866" s="26"/>
+      <c r="A866" s="37"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="A867" s="26"/>
+      <c r="A867" s="37"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="A868" s="26"/>
+      <c r="A868" s="37"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="A869" s="26"/>
+      <c r="A869" s="37"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="A870" s="26"/>
+      <c r="A870" s="37"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="A871" s="26"/>
+      <c r="A871" s="37"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="A872" s="26"/>
+      <c r="A872" s="37"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="A873" s="26"/>
+      <c r="A873" s="37"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="A874" s="26"/>
+      <c r="A874" s="37"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="A875" s="26"/>
+      <c r="A875" s="37"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="A876" s="26"/>
+      <c r="A876" s="37"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="A877" s="26"/>
+      <c r="A877" s="37"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="A878" s="26"/>
+      <c r="A878" s="37"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="A879" s="26"/>
+      <c r="A879" s="37"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="A880" s="26"/>
+      <c r="A880" s="37"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="A881" s="26"/>
+      <c r="A881" s="37"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="A882" s="26"/>
+      <c r="A882" s="37"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="A883" s="26"/>
+      <c r="A883" s="37"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="A884" s="26"/>
+      <c r="A884" s="37"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="A885" s="26"/>
+      <c r="A885" s="37"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="A886" s="26"/>
+      <c r="A886" s="37"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="A887" s="26"/>
+      <c r="A887" s="37"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="A888" s="26"/>
+      <c r="A888" s="37"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="A889" s="26"/>
+      <c r="A889" s="37"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="A890" s="26"/>
+      <c r="A890" s="37"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="A891" s="26"/>
+      <c r="A891" s="37"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="A892" s="26"/>
+      <c r="A892" s="37"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="A893" s="26"/>
+      <c r="A893" s="37"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="A894" s="26"/>
+      <c r="A894" s="37"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="A895" s="26"/>
+      <c r="A895" s="37"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="A896" s="26"/>
+      <c r="A896" s="37"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="A897" s="26"/>
+      <c r="A897" s="37"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="A898" s="26"/>
+      <c r="A898" s="37"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="A899" s="26"/>
+      <c r="A899" s="37"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="A900" s="26"/>
+      <c r="A900" s="37"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="A901" s="26"/>
+      <c r="A901" s="37"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="A902" s="26"/>
+      <c r="A902" s="37"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="A903" s="26"/>
+      <c r="A903" s="37"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="A904" s="26"/>
+      <c r="A904" s="37"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="A905" s="26"/>
+      <c r="A905" s="37"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="A906" s="26"/>
+      <c r="A906" s="37"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="A907" s="26"/>
+      <c r="A907" s="37"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="A908" s="26"/>
+      <c r="A908" s="37"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="A909" s="26"/>
+      <c r="A909" s="37"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="A910" s="26"/>
+      <c r="A910" s="37"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="A911" s="26"/>
+      <c r="A911" s="37"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="A912" s="26"/>
+      <c r="A912" s="37"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="A913" s="26"/>
+      <c r="A913" s="37"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="A914" s="26"/>
+      <c r="A914" s="37"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="A915" s="26"/>
+      <c r="A915" s="37"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="A916" s="26"/>
+      <c r="A916" s="37"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="A917" s="26"/>
+      <c r="A917" s="37"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="A918" s="26"/>
+      <c r="A918" s="37"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="A919" s="26"/>
+      <c r="A919" s="37"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="A920" s="26"/>
+      <c r="A920" s="37"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="A921" s="26"/>
+      <c r="A921" s="37"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="A922" s="26"/>
+      <c r="A922" s="37"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="A923" s="26"/>
+      <c r="A923" s="37"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="A924" s="26"/>
+      <c r="A924" s="37"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="A925" s="26"/>
+      <c r="A925" s="37"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="A926" s="26"/>
+      <c r="A926" s="37"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="A927" s="26"/>
+      <c r="A927" s="37"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="A928" s="26"/>
+      <c r="A928" s="37"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="A929" s="26"/>
+      <c r="A929" s="37"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="A930" s="26"/>
+      <c r="A930" s="37"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="A931" s="26"/>
+      <c r="A931" s="37"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="A932" s="26"/>
+      <c r="A932" s="37"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="A933" s="26"/>
+      <c r="A933" s="37"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="A934" s="26"/>
+      <c r="A934" s="37"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="A935" s="26"/>
+      <c r="A935" s="37"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="A936" s="26"/>
+      <c r="A936" s="37"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="A937" s="26"/>
+      <c r="A937" s="37"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="A938" s="26"/>
+      <c r="A938" s="37"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="A939" s="26"/>
+      <c r="A939" s="37"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="A940" s="26"/>
+      <c r="A940" s="37"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="A941" s="26"/>
+      <c r="A941" s="37"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="A942" s="26"/>
+      <c r="A942" s="37"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="A943" s="26"/>
+      <c r="A943" s="37"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="A944" s="26"/>
+      <c r="A944" s="37"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="A945" s="26"/>
+      <c r="A945" s="37"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="A946" s="26"/>
+      <c r="A946" s="37"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="A947" s="26"/>
+      <c r="A947" s="37"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="A948" s="26"/>
+      <c r="A948" s="37"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="A949" s="26"/>
+      <c r="A949" s="37"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="A950" s="26"/>
+      <c r="A950" s="37"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="A951" s="26"/>
+      <c r="A951" s="37"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="A952" s="26"/>
+      <c r="A952" s="37"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="A953" s="26"/>
+      <c r="A953" s="37"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="A954" s="26"/>
+      <c r="A954" s="37"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="A955" s="26"/>
+      <c r="A955" s="37"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="A956" s="26"/>
+      <c r="A956" s="37"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="A957" s="26"/>
+      <c r="A957" s="37"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="A958" s="26"/>
+      <c r="A958" s="37"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="A959" s="26"/>
+      <c r="A959" s="37"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="A960" s="26"/>
+      <c r="A960" s="37"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="A961" s="26"/>
+      <c r="A961" s="37"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="A962" s="26"/>
+      <c r="A962" s="37"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="A963" s="26"/>
+      <c r="A963" s="37"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="A964" s="26"/>
+      <c r="A964" s="37"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="A965" s="26"/>
+      <c r="A965" s="37"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="A966" s="26"/>
+      <c r="A966" s="37"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="A967" s="26"/>
+      <c r="A967" s="37"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="A968" s="26"/>
+      <c r="A968" s="37"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="A969" s="26"/>
+      <c r="A969" s="37"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="A970" s="26"/>
+      <c r="A970" s="37"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="A971" s="26"/>
+      <c r="A971" s="37"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="A972" s="26"/>
+      <c r="A972" s="37"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="A973" s="26"/>
+      <c r="A973" s="37"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="A974" s="26"/>
+      <c r="A974" s="37"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="A975" s="26"/>
+      <c r="A975" s="37"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="A976" s="26"/>
+      <c r="A976" s="37"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="A977" s="26"/>
+      <c r="A977" s="37"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="A978" s="26"/>
+      <c r="A978" s="37"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="A979" s="26"/>
+      <c r="A979" s="37"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="A980" s="26"/>
+      <c r="A980" s="37"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="A981" s="26"/>
+      <c r="A981" s="37"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="A982" s="26"/>
+      <c r="A982" s="37"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="A983" s="26"/>
+      <c r="A983" s="37"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="A984" s="26"/>
+      <c r="A984" s="37"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="A985" s="26"/>
+      <c r="A985" s="37"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="A986" s="26"/>
+      <c r="A986" s="37"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="A987" s="26"/>
+      <c r="A987" s="37"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="A988" s="26"/>
-    </row>
-    <row r="989">
-      <c r="A989" s="26"/>
+      <c r="A988" s="37"/>
+    </row>
+    <row r="989" ht="15.75" customHeight="1">
+      <c r="A989" s="37"/>
     </row>
     <row r="990">
-      <c r="A990" s="26"/>
+      <c r="A990" s="37"/>
     </row>
     <row r="991">
-      <c r="A991" s="26"/>
+      <c r="A991" s="37"/>
     </row>
     <row r="992">
-      <c r="A992" s="26"/>
+      <c r="A992" s="37"/>
     </row>
     <row r="993">
-      <c r="A993" s="26"/>
+      <c r="A993" s="37"/>
     </row>
     <row r="994">
-      <c r="A994" s="26"/>
+      <c r="A994" s="37"/>
     </row>
     <row r="995">
-      <c r="A995" s="26"/>
+      <c r="A995" s="37"/>
     </row>
     <row r="996">
-      <c r="A996" s="26"/>
+      <c r="A996" s="37"/>
     </row>
     <row r="997">
-      <c r="A997" s="26"/>
+      <c r="A997" s="37"/>
     </row>
     <row r="998">
-      <c r="A998" s="26"/>
+      <c r="A998" s="37"/>
     </row>
     <row r="999">
-      <c r="A999" s="26"/>
+      <c r="A999" s="37"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="37"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -6051,3125 +6245,3129 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="21" t="s">
+      <c r="A1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="B2" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3">
-      <c r="A3" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
+      <c r="A3" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
     </row>
     <row r="4">
-      <c r="A4" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
+      <c r="A4" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
     </row>
     <row r="5">
-      <c r="A5" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
+      <c r="A5" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
     </row>
     <row r="6">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
     </row>
     <row r="7">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
     </row>
     <row r="8">
-      <c r="A8" s="26"/>
+      <c r="A8" s="37"/>
     </row>
     <row r="9">
-      <c r="A9" s="26"/>
+      <c r="A9" s="37"/>
     </row>
     <row r="10">
-      <c r="A10" s="26"/>
+      <c r="A10" s="37"/>
     </row>
     <row r="11">
-      <c r="A11" s="26"/>
+      <c r="A11" s="37"/>
     </row>
     <row r="12">
-      <c r="A12" s="26"/>
+      <c r="A12" s="37"/>
     </row>
     <row r="13">
-      <c r="A13" s="26"/>
+      <c r="A13" s="37"/>
     </row>
     <row r="14">
-      <c r="A14" s="26"/>
+      <c r="A14" s="37"/>
     </row>
     <row r="15">
-      <c r="A15" s="26"/>
+      <c r="A15" s="37"/>
     </row>
     <row r="16">
-      <c r="A16" s="26"/>
+      <c r="A16" s="37"/>
     </row>
     <row r="17">
-      <c r="A17" s="26"/>
+      <c r="A17" s="37"/>
     </row>
     <row r="18">
-      <c r="A18" s="26"/>
+      <c r="A18" s="37"/>
     </row>
     <row r="19">
-      <c r="A19" s="26"/>
+      <c r="A19" s="37"/>
     </row>
     <row r="20">
-      <c r="A20" s="26"/>
+      <c r="A20" s="37"/>
     </row>
     <row r="21">
-      <c r="A21" s="26"/>
+      <c r="A21" s="37"/>
     </row>
     <row r="22">
-      <c r="A22" s="26"/>
+      <c r="A22" s="37"/>
     </row>
     <row r="23">
-      <c r="A23" s="26"/>
+      <c r="A23" s="37"/>
     </row>
     <row r="24">
-      <c r="A24" s="26"/>
+      <c r="A24" s="37"/>
     </row>
     <row r="25">
-      <c r="A25" s="26"/>
+      <c r="A25" s="37"/>
     </row>
     <row r="26">
-      <c r="A26" s="26"/>
+      <c r="A26" s="37"/>
     </row>
     <row r="27">
-      <c r="A27" s="26"/>
+      <c r="A27" s="37"/>
     </row>
     <row r="28">
-      <c r="A28" s="26"/>
+      <c r="A28" s="37"/>
     </row>
     <row r="29">
-      <c r="A29" s="26"/>
+      <c r="A29" s="37"/>
     </row>
     <row r="30">
-      <c r="A30" s="26"/>
+      <c r="A30" s="37"/>
     </row>
     <row r="31">
-      <c r="A31" s="26"/>
+      <c r="A31" s="37"/>
     </row>
     <row r="32">
-      <c r="A32" s="26"/>
+      <c r="A32" s="37"/>
     </row>
     <row r="33">
-      <c r="A33" s="26"/>
+      <c r="A33" s="37"/>
     </row>
     <row r="34">
-      <c r="A34" s="26"/>
+      <c r="A34" s="37"/>
     </row>
     <row r="35">
-      <c r="A35" s="26"/>
+      <c r="A35" s="37"/>
     </row>
     <row r="36">
-      <c r="A36" s="26"/>
+      <c r="A36" s="37"/>
     </row>
     <row r="37">
-      <c r="A37" s="26"/>
+      <c r="A37" s="37"/>
     </row>
     <row r="38">
-      <c r="A38" s="26"/>
+      <c r="A38" s="37"/>
     </row>
     <row r="39">
-      <c r="A39" s="26"/>
+      <c r="A39" s="37"/>
     </row>
     <row r="40">
-      <c r="A40" s="26"/>
+      <c r="A40" s="37"/>
     </row>
     <row r="41">
-      <c r="A41" s="26"/>
+      <c r="A41" s="37"/>
     </row>
     <row r="42">
-      <c r="A42" s="26"/>
+      <c r="A42" s="37"/>
     </row>
     <row r="43">
-      <c r="A43" s="26"/>
+      <c r="A43" s="37"/>
     </row>
     <row r="44">
-      <c r="A44" s="26"/>
+      <c r="A44" s="37"/>
     </row>
     <row r="45">
-      <c r="A45" s="26"/>
+      <c r="A45" s="37"/>
     </row>
     <row r="46">
-      <c r="A46" s="26"/>
+      <c r="A46" s="37"/>
     </row>
     <row r="47">
-      <c r="A47" s="26"/>
+      <c r="A47" s="37"/>
     </row>
     <row r="48">
-      <c r="A48" s="26"/>
+      <c r="A48" s="37"/>
     </row>
     <row r="49">
-      <c r="A49" s="26"/>
+      <c r="A49" s="37"/>
     </row>
     <row r="50">
-      <c r="A50" s="26"/>
+      <c r="A50" s="37"/>
     </row>
     <row r="51">
-      <c r="A51" s="26"/>
+      <c r="A51" s="37"/>
     </row>
     <row r="52">
-      <c r="A52" s="26"/>
+      <c r="A52" s="37"/>
     </row>
     <row r="53">
-      <c r="A53" s="26"/>
+      <c r="A53" s="37"/>
     </row>
     <row r="54">
-      <c r="A54" s="26"/>
+      <c r="A54" s="37"/>
     </row>
     <row r="55">
-      <c r="A55" s="26"/>
+      <c r="A55" s="37"/>
     </row>
     <row r="56">
-      <c r="A56" s="26"/>
+      <c r="A56" s="37"/>
     </row>
     <row r="57">
-      <c r="A57" s="26"/>
+      <c r="A57" s="37"/>
     </row>
     <row r="58">
-      <c r="A58" s="26"/>
+      <c r="A58" s="37"/>
     </row>
     <row r="59">
-      <c r="A59" s="26"/>
+      <c r="A59" s="37"/>
     </row>
     <row r="60">
-      <c r="A60" s="26"/>
+      <c r="A60" s="37"/>
     </row>
     <row r="61">
-      <c r="A61" s="26"/>
+      <c r="A61" s="37"/>
     </row>
     <row r="62">
-      <c r="A62" s="26"/>
+      <c r="A62" s="37"/>
     </row>
     <row r="63">
-      <c r="A63" s="26"/>
+      <c r="A63" s="37"/>
     </row>
     <row r="64">
-      <c r="A64" s="26"/>
+      <c r="A64" s="37"/>
     </row>
     <row r="65">
-      <c r="A65" s="26"/>
+      <c r="A65" s="37"/>
     </row>
     <row r="66">
-      <c r="A66" s="26"/>
+      <c r="A66" s="37"/>
     </row>
     <row r="67">
-      <c r="A67" s="26"/>
+      <c r="A67" s="37"/>
     </row>
     <row r="68">
-      <c r="A68" s="26"/>
+      <c r="A68" s="37"/>
     </row>
     <row r="69">
-      <c r="A69" s="26"/>
+      <c r="A69" s="37"/>
     </row>
     <row r="70">
-      <c r="A70" s="26"/>
+      <c r="A70" s="37"/>
     </row>
     <row r="71">
-      <c r="A71" s="26"/>
+      <c r="A71" s="37"/>
     </row>
     <row r="72">
-      <c r="A72" s="26"/>
+      <c r="A72" s="37"/>
     </row>
     <row r="73">
-      <c r="A73" s="26"/>
+      <c r="A73" s="37"/>
     </row>
     <row r="74">
-      <c r="A74" s="26"/>
+      <c r="A74" s="37"/>
     </row>
     <row r="75">
-      <c r="A75" s="26"/>
+      <c r="A75" s="37"/>
     </row>
     <row r="76">
-      <c r="A76" s="26"/>
+      <c r="A76" s="37"/>
     </row>
     <row r="77">
-      <c r="A77" s="26"/>
+      <c r="A77" s="37"/>
     </row>
     <row r="78">
-      <c r="A78" s="26"/>
+      <c r="A78" s="37"/>
     </row>
     <row r="79">
-      <c r="A79" s="26"/>
+      <c r="A79" s="37"/>
     </row>
     <row r="80">
-      <c r="A80" s="26"/>
+      <c r="A80" s="37"/>
     </row>
     <row r="81">
-      <c r="A81" s="26"/>
+      <c r="A81" s="37"/>
     </row>
     <row r="82">
-      <c r="A82" s="26"/>
+      <c r="A82" s="37"/>
     </row>
     <row r="83">
-      <c r="A83" s="26"/>
+      <c r="A83" s="37"/>
     </row>
     <row r="84">
-      <c r="A84" s="26"/>
+      <c r="A84" s="37"/>
     </row>
     <row r="85">
-      <c r="A85" s="26"/>
+      <c r="A85" s="37"/>
     </row>
     <row r="86">
-      <c r="A86" s="26"/>
+      <c r="A86" s="37"/>
     </row>
     <row r="87">
-      <c r="A87" s="26"/>
+      <c r="A87" s="37"/>
     </row>
     <row r="88">
-      <c r="A88" s="26"/>
+      <c r="A88" s="37"/>
     </row>
     <row r="89">
-      <c r="A89" s="26"/>
+      <c r="A89" s="37"/>
     </row>
     <row r="90">
-      <c r="A90" s="26"/>
+      <c r="A90" s="37"/>
     </row>
     <row r="91">
-      <c r="A91" s="26"/>
+      <c r="A91" s="37"/>
     </row>
     <row r="92">
-      <c r="A92" s="26"/>
+      <c r="A92" s="37"/>
     </row>
     <row r="93">
-      <c r="A93" s="26"/>
+      <c r="A93" s="37"/>
     </row>
     <row r="94">
-      <c r="A94" s="26"/>
+      <c r="A94" s="37"/>
     </row>
     <row r="95">
-      <c r="A95" s="26"/>
+      <c r="A95" s="37"/>
     </row>
     <row r="96">
-      <c r="A96" s="26"/>
+      <c r="A96" s="37"/>
     </row>
     <row r="97">
-      <c r="A97" s="26"/>
+      <c r="A97" s="37"/>
     </row>
     <row r="98">
-      <c r="A98" s="26"/>
+      <c r="A98" s="37"/>
     </row>
     <row r="99">
-      <c r="A99" s="26"/>
+      <c r="A99" s="37"/>
     </row>
     <row r="100">
-      <c r="A100" s="26"/>
+      <c r="A100" s="37"/>
     </row>
     <row r="101">
-      <c r="A101" s="26"/>
+      <c r="A101" s="37"/>
     </row>
     <row r="102">
-      <c r="A102" s="26"/>
+      <c r="A102" s="37"/>
     </row>
     <row r="103">
-      <c r="A103" s="26"/>
+      <c r="A103" s="37"/>
     </row>
     <row r="104">
-      <c r="A104" s="26"/>
+      <c r="A104" s="37"/>
     </row>
     <row r="105">
-      <c r="A105" s="26"/>
+      <c r="A105" s="37"/>
     </row>
     <row r="106">
-      <c r="A106" s="26"/>
+      <c r="A106" s="37"/>
     </row>
     <row r="107">
-      <c r="A107" s="26"/>
+      <c r="A107" s="37"/>
     </row>
     <row r="108">
-      <c r="A108" s="26"/>
+      <c r="A108" s="37"/>
     </row>
     <row r="109">
-      <c r="A109" s="26"/>
+      <c r="A109" s="37"/>
     </row>
     <row r="110">
-      <c r="A110" s="26"/>
+      <c r="A110" s="37"/>
     </row>
     <row r="111">
-      <c r="A111" s="26"/>
+      <c r="A111" s="37"/>
     </row>
     <row r="112">
-      <c r="A112" s="26"/>
+      <c r="A112" s="37"/>
     </row>
     <row r="113">
-      <c r="A113" s="26"/>
+      <c r="A113" s="37"/>
     </row>
     <row r="114">
-      <c r="A114" s="26"/>
+      <c r="A114" s="37"/>
     </row>
     <row r="115">
-      <c r="A115" s="26"/>
+      <c r="A115" s="37"/>
     </row>
     <row r="116">
-      <c r="A116" s="26"/>
+      <c r="A116" s="37"/>
     </row>
     <row r="117">
-      <c r="A117" s="26"/>
+      <c r="A117" s="37"/>
     </row>
     <row r="118">
-      <c r="A118" s="26"/>
+      <c r="A118" s="37"/>
     </row>
     <row r="119">
-      <c r="A119" s="26"/>
+      <c r="A119" s="37"/>
     </row>
     <row r="120">
-      <c r="A120" s="26"/>
+      <c r="A120" s="37"/>
     </row>
     <row r="121">
-      <c r="A121" s="26"/>
+      <c r="A121" s="37"/>
     </row>
     <row r="122">
-      <c r="A122" s="26"/>
+      <c r="A122" s="37"/>
     </row>
     <row r="123">
-      <c r="A123" s="26"/>
+      <c r="A123" s="37"/>
     </row>
     <row r="124">
-      <c r="A124" s="26"/>
+      <c r="A124" s="37"/>
     </row>
     <row r="125">
-      <c r="A125" s="26"/>
+      <c r="A125" s="37"/>
     </row>
     <row r="126">
-      <c r="A126" s="26"/>
+      <c r="A126" s="37"/>
     </row>
     <row r="127">
-      <c r="A127" s="26"/>
+      <c r="A127" s="37"/>
     </row>
     <row r="128">
-      <c r="A128" s="26"/>
+      <c r="A128" s="37"/>
     </row>
     <row r="129">
-      <c r="A129" s="26"/>
+      <c r="A129" s="37"/>
     </row>
     <row r="130">
-      <c r="A130" s="26"/>
+      <c r="A130" s="37"/>
     </row>
     <row r="131">
-      <c r="A131" s="26"/>
+      <c r="A131" s="37"/>
     </row>
     <row r="132">
-      <c r="A132" s="26"/>
+      <c r="A132" s="37"/>
     </row>
     <row r="133">
-      <c r="A133" s="26"/>
+      <c r="A133" s="37"/>
     </row>
     <row r="134">
-      <c r="A134" s="26"/>
+      <c r="A134" s="37"/>
     </row>
     <row r="135">
-      <c r="A135" s="26"/>
+      <c r="A135" s="37"/>
     </row>
     <row r="136">
-      <c r="A136" s="26"/>
+      <c r="A136" s="37"/>
     </row>
     <row r="137">
-      <c r="A137" s="26"/>
+      <c r="A137" s="37"/>
     </row>
     <row r="138">
-      <c r="A138" s="26"/>
+      <c r="A138" s="37"/>
     </row>
     <row r="139">
-      <c r="A139" s="26"/>
+      <c r="A139" s="37"/>
     </row>
     <row r="140">
-      <c r="A140" s="26"/>
+      <c r="A140" s="37"/>
     </row>
     <row r="141">
-      <c r="A141" s="26"/>
+      <c r="A141" s="37"/>
     </row>
     <row r="142">
-      <c r="A142" s="26"/>
+      <c r="A142" s="37"/>
     </row>
     <row r="143">
-      <c r="A143" s="26"/>
+      <c r="A143" s="37"/>
     </row>
     <row r="144">
-      <c r="A144" s="26"/>
+      <c r="A144" s="37"/>
     </row>
     <row r="145">
-      <c r="A145" s="26"/>
+      <c r="A145" s="37"/>
     </row>
     <row r="146">
-      <c r="A146" s="26"/>
+      <c r="A146" s="37"/>
     </row>
     <row r="147">
-      <c r="A147" s="26"/>
+      <c r="A147" s="37"/>
     </row>
     <row r="148">
-      <c r="A148" s="26"/>
+      <c r="A148" s="37"/>
     </row>
     <row r="149">
-      <c r="A149" s="26"/>
+      <c r="A149" s="37"/>
     </row>
     <row r="150">
-      <c r="A150" s="26"/>
+      <c r="A150" s="37"/>
     </row>
     <row r="151">
-      <c r="A151" s="26"/>
+      <c r="A151" s="37"/>
     </row>
     <row r="152">
-      <c r="A152" s="26"/>
+      <c r="A152" s="37"/>
     </row>
     <row r="153">
-      <c r="A153" s="26"/>
+      <c r="A153" s="37"/>
     </row>
     <row r="154">
-      <c r="A154" s="26"/>
+      <c r="A154" s="37"/>
     </row>
     <row r="155">
-      <c r="A155" s="26"/>
+      <c r="A155" s="37"/>
     </row>
     <row r="156">
-      <c r="A156" s="26"/>
+      <c r="A156" s="37"/>
     </row>
     <row r="157">
-      <c r="A157" s="26"/>
+      <c r="A157" s="37"/>
     </row>
     <row r="158">
-      <c r="A158" s="26"/>
+      <c r="A158" s="37"/>
     </row>
     <row r="159">
-      <c r="A159" s="26"/>
+      <c r="A159" s="37"/>
     </row>
     <row r="160">
-      <c r="A160" s="26"/>
+      <c r="A160" s="37"/>
     </row>
     <row r="161">
-      <c r="A161" s="26"/>
+      <c r="A161" s="37"/>
     </row>
     <row r="162">
-      <c r="A162" s="26"/>
+      <c r="A162" s="37"/>
     </row>
     <row r="163">
-      <c r="A163" s="26"/>
+      <c r="A163" s="37"/>
     </row>
     <row r="164">
-      <c r="A164" s="26"/>
+      <c r="A164" s="37"/>
     </row>
     <row r="165">
-      <c r="A165" s="26"/>
+      <c r="A165" s="37"/>
     </row>
     <row r="166">
-      <c r="A166" s="26"/>
+      <c r="A166" s="37"/>
     </row>
     <row r="167">
-      <c r="A167" s="26"/>
+      <c r="A167" s="37"/>
     </row>
     <row r="168">
-      <c r="A168" s="26"/>
+      <c r="A168" s="37"/>
     </row>
     <row r="169">
-      <c r="A169" s="26"/>
+      <c r="A169" s="37"/>
     </row>
     <row r="170">
-      <c r="A170" s="26"/>
+      <c r="A170" s="37"/>
     </row>
     <row r="171">
-      <c r="A171" s="26"/>
+      <c r="A171" s="37"/>
     </row>
     <row r="172">
-      <c r="A172" s="26"/>
+      <c r="A172" s="37"/>
     </row>
     <row r="173">
-      <c r="A173" s="26"/>
+      <c r="A173" s="37"/>
     </row>
     <row r="174">
-      <c r="A174" s="26"/>
+      <c r="A174" s="37"/>
     </row>
     <row r="175">
-      <c r="A175" s="26"/>
+      <c r="A175" s="37"/>
     </row>
     <row r="176">
-      <c r="A176" s="26"/>
+      <c r="A176" s="37"/>
     </row>
     <row r="177">
-      <c r="A177" s="26"/>
+      <c r="A177" s="37"/>
     </row>
     <row r="178">
-      <c r="A178" s="26"/>
+      <c r="A178" s="37"/>
     </row>
     <row r="179">
-      <c r="A179" s="26"/>
+      <c r="A179" s="37"/>
     </row>
     <row r="180">
-      <c r="A180" s="26"/>
+      <c r="A180" s="37"/>
     </row>
     <row r="181">
-      <c r="A181" s="26"/>
+      <c r="A181" s="37"/>
     </row>
     <row r="182">
-      <c r="A182" s="26"/>
+      <c r="A182" s="37"/>
     </row>
     <row r="183">
-      <c r="A183" s="26"/>
+      <c r="A183" s="37"/>
     </row>
     <row r="184">
-      <c r="A184" s="26"/>
+      <c r="A184" s="37"/>
     </row>
     <row r="185">
-      <c r="A185" s="26"/>
+      <c r="A185" s="37"/>
     </row>
     <row r="186">
-      <c r="A186" s="26"/>
+      <c r="A186" s="37"/>
     </row>
     <row r="187">
-      <c r="A187" s="26"/>
+      <c r="A187" s="37"/>
     </row>
     <row r="188">
-      <c r="A188" s="26"/>
+      <c r="A188" s="37"/>
     </row>
     <row r="189">
-      <c r="A189" s="26"/>
+      <c r="A189" s="37"/>
     </row>
     <row r="190">
-      <c r="A190" s="26"/>
+      <c r="A190" s="37"/>
     </row>
     <row r="191">
-      <c r="A191" s="26"/>
+      <c r="A191" s="37"/>
     </row>
     <row r="192">
-      <c r="A192" s="26"/>
+      <c r="A192" s="37"/>
     </row>
     <row r="193">
-      <c r="A193" s="26"/>
+      <c r="A193" s="37"/>
     </row>
     <row r="194">
-      <c r="A194" s="26"/>
+      <c r="A194" s="37"/>
     </row>
     <row r="195">
-      <c r="A195" s="26"/>
+      <c r="A195" s="37"/>
     </row>
     <row r="196">
-      <c r="A196" s="26"/>
+      <c r="A196" s="37"/>
     </row>
     <row r="197">
-      <c r="A197" s="26"/>
+      <c r="A197" s="37"/>
     </row>
     <row r="198">
-      <c r="A198" s="26"/>
+      <c r="A198" s="37"/>
     </row>
     <row r="199">
-      <c r="A199" s="26"/>
+      <c r="A199" s="37"/>
     </row>
     <row r="200">
-      <c r="A200" s="26"/>
+      <c r="A200" s="37"/>
     </row>
     <row r="201">
-      <c r="A201" s="26"/>
+      <c r="A201" s="37"/>
     </row>
     <row r="202">
-      <c r="A202" s="26"/>
+      <c r="A202" s="37"/>
     </row>
     <row r="203">
-      <c r="A203" s="26"/>
+      <c r="A203" s="37"/>
     </row>
     <row r="204">
-      <c r="A204" s="26"/>
+      <c r="A204" s="37"/>
     </row>
     <row r="205">
-      <c r="A205" s="26"/>
+      <c r="A205" s="37"/>
     </row>
     <row r="206">
-      <c r="A206" s="26"/>
+      <c r="A206" s="37"/>
     </row>
     <row r="207">
-      <c r="A207" s="26"/>
+      <c r="A207" s="37"/>
     </row>
     <row r="208">
-      <c r="A208" s="26"/>
+      <c r="A208" s="37"/>
     </row>
     <row r="209">
-      <c r="A209" s="26"/>
+      <c r="A209" s="37"/>
     </row>
     <row r="210">
-      <c r="A210" s="26"/>
+      <c r="A210" s="37"/>
     </row>
     <row r="211">
-      <c r="A211" s="26"/>
+      <c r="A211" s="37"/>
     </row>
     <row r="212">
-      <c r="A212" s="26"/>
+      <c r="A212" s="37"/>
     </row>
     <row r="213">
-      <c r="A213" s="26"/>
+      <c r="A213" s="37"/>
     </row>
     <row r="214">
-      <c r="A214" s="26"/>
+      <c r="A214" s="37"/>
     </row>
     <row r="215">
-      <c r="A215" s="26"/>
+      <c r="A215" s="37"/>
     </row>
     <row r="216">
-      <c r="A216" s="26"/>
+      <c r="A216" s="37"/>
     </row>
     <row r="217">
-      <c r="A217" s="26"/>
+      <c r="A217" s="37"/>
     </row>
     <row r="218">
-      <c r="A218" s="26"/>
+      <c r="A218" s="37"/>
     </row>
     <row r="219">
-      <c r="A219" s="26"/>
+      <c r="A219" s="37"/>
     </row>
     <row r="220">
-      <c r="A220" s="26"/>
+      <c r="A220" s="37"/>
     </row>
     <row r="221">
-      <c r="A221" s="26"/>
+      <c r="A221" s="37"/>
     </row>
     <row r="222">
-      <c r="A222" s="26"/>
+      <c r="A222" s="37"/>
     </row>
     <row r="223">
-      <c r="A223" s="26"/>
+      <c r="A223" s="37"/>
     </row>
     <row r="224">
-      <c r="A224" s="26"/>
+      <c r="A224" s="37"/>
     </row>
     <row r="225">
-      <c r="A225" s="26"/>
+      <c r="A225" s="37"/>
     </row>
     <row r="226">
-      <c r="A226" s="26"/>
+      <c r="A226" s="37"/>
     </row>
     <row r="227">
-      <c r="A227" s="26"/>
+      <c r="A227" s="37"/>
     </row>
     <row r="228">
-      <c r="A228" s="26"/>
+      <c r="A228" s="37"/>
     </row>
     <row r="229">
-      <c r="A229" s="26"/>
+      <c r="A229" s="37"/>
     </row>
     <row r="230">
-      <c r="A230" s="26"/>
+      <c r="A230" s="37"/>
     </row>
     <row r="231">
-      <c r="A231" s="26"/>
+      <c r="A231" s="37"/>
     </row>
     <row r="232">
-      <c r="A232" s="26"/>
+      <c r="A232" s="37"/>
     </row>
     <row r="233">
-      <c r="A233" s="26"/>
+      <c r="A233" s="37"/>
     </row>
     <row r="234">
-      <c r="A234" s="26"/>
+      <c r="A234" s="37"/>
     </row>
     <row r="235">
-      <c r="A235" s="26"/>
+      <c r="A235" s="37"/>
     </row>
     <row r="236">
-      <c r="A236" s="26"/>
+      <c r="A236" s="37"/>
     </row>
     <row r="237">
-      <c r="A237" s="26"/>
+      <c r="A237" s="37"/>
     </row>
     <row r="238">
-      <c r="A238" s="26"/>
+      <c r="A238" s="37"/>
     </row>
     <row r="239">
-      <c r="A239" s="26"/>
+      <c r="A239" s="37"/>
     </row>
     <row r="240">
-      <c r="A240" s="26"/>
+      <c r="A240" s="37"/>
     </row>
     <row r="241">
-      <c r="A241" s="26"/>
+      <c r="A241" s="37"/>
     </row>
     <row r="242">
-      <c r="A242" s="26"/>
+      <c r="A242" s="37"/>
     </row>
     <row r="243">
-      <c r="A243" s="26"/>
+      <c r="A243" s="37"/>
     </row>
     <row r="244">
-      <c r="A244" s="26"/>
+      <c r="A244" s="37"/>
     </row>
     <row r="245">
-      <c r="A245" s="26"/>
+      <c r="A245" s="37"/>
     </row>
     <row r="246">
-      <c r="A246" s="26"/>
+      <c r="A246" s="37"/>
     </row>
     <row r="247">
-      <c r="A247" s="26"/>
+      <c r="A247" s="37"/>
     </row>
     <row r="248">
-      <c r="A248" s="26"/>
+      <c r="A248" s="37"/>
     </row>
     <row r="249">
-      <c r="A249" s="26"/>
+      <c r="A249" s="37"/>
     </row>
     <row r="250">
-      <c r="A250" s="26"/>
+      <c r="A250" s="37"/>
     </row>
     <row r="251">
-      <c r="A251" s="26"/>
+      <c r="A251" s="37"/>
     </row>
     <row r="252">
-      <c r="A252" s="26"/>
+      <c r="A252" s="37"/>
     </row>
     <row r="253">
-      <c r="A253" s="26"/>
+      <c r="A253" s="37"/>
     </row>
     <row r="254">
-      <c r="A254" s="26"/>
+      <c r="A254" s="37"/>
     </row>
     <row r="255">
-      <c r="A255" s="26"/>
+      <c r="A255" s="37"/>
     </row>
     <row r="256">
-      <c r="A256" s="26"/>
+      <c r="A256" s="37"/>
     </row>
     <row r="257">
-      <c r="A257" s="26"/>
+      <c r="A257" s="37"/>
     </row>
     <row r="258">
-      <c r="A258" s="26"/>
+      <c r="A258" s="37"/>
     </row>
     <row r="259">
-      <c r="A259" s="26"/>
+      <c r="A259" s="37"/>
     </row>
     <row r="260">
-      <c r="A260" s="26"/>
+      <c r="A260" s="37"/>
     </row>
     <row r="261">
-      <c r="A261" s="26"/>
+      <c r="A261" s="37"/>
     </row>
     <row r="262">
-      <c r="A262" s="26"/>
+      <c r="A262" s="37"/>
     </row>
     <row r="263">
-      <c r="A263" s="26"/>
+      <c r="A263" s="37"/>
     </row>
     <row r="264">
-      <c r="A264" s="26"/>
+      <c r="A264" s="37"/>
     </row>
     <row r="265">
-      <c r="A265" s="26"/>
+      <c r="A265" s="37"/>
     </row>
     <row r="266">
-      <c r="A266" s="26"/>
+      <c r="A266" s="37"/>
     </row>
     <row r="267">
-      <c r="A267" s="26"/>
+      <c r="A267" s="37"/>
     </row>
     <row r="268">
-      <c r="A268" s="26"/>
+      <c r="A268" s="37"/>
     </row>
     <row r="269">
-      <c r="A269" s="26"/>
+      <c r="A269" s="37"/>
     </row>
     <row r="270">
-      <c r="A270" s="26"/>
+      <c r="A270" s="37"/>
     </row>
     <row r="271">
-      <c r="A271" s="26"/>
+      <c r="A271" s="37"/>
     </row>
     <row r="272">
-      <c r="A272" s="26"/>
+      <c r="A272" s="37"/>
     </row>
     <row r="273">
-      <c r="A273" s="26"/>
+      <c r="A273" s="37"/>
     </row>
     <row r="274">
-      <c r="A274" s="26"/>
+      <c r="A274" s="37"/>
     </row>
     <row r="275">
-      <c r="A275" s="26"/>
+      <c r="A275" s="37"/>
     </row>
     <row r="276">
-      <c r="A276" s="26"/>
+      <c r="A276" s="37"/>
     </row>
     <row r="277">
-      <c r="A277" s="26"/>
+      <c r="A277" s="37"/>
     </row>
     <row r="278">
-      <c r="A278" s="26"/>
+      <c r="A278" s="37"/>
     </row>
     <row r="279">
-      <c r="A279" s="26"/>
+      <c r="A279" s="37"/>
     </row>
     <row r="280">
-      <c r="A280" s="26"/>
+      <c r="A280" s="37"/>
     </row>
     <row r="281">
-      <c r="A281" s="26"/>
+      <c r="A281" s="37"/>
     </row>
     <row r="282">
-      <c r="A282" s="26"/>
+      <c r="A282" s="37"/>
     </row>
     <row r="283">
-      <c r="A283" s="26"/>
+      <c r="A283" s="37"/>
     </row>
     <row r="284">
-      <c r="A284" s="26"/>
+      <c r="A284" s="37"/>
     </row>
     <row r="285">
-      <c r="A285" s="26"/>
+      <c r="A285" s="37"/>
     </row>
     <row r="286">
-      <c r="A286" s="26"/>
+      <c r="A286" s="37"/>
     </row>
     <row r="287">
-      <c r="A287" s="26"/>
+      <c r="A287" s="37"/>
     </row>
     <row r="288">
-      <c r="A288" s="26"/>
+      <c r="A288" s="37"/>
     </row>
     <row r="289">
-      <c r="A289" s="26"/>
+      <c r="A289" s="37"/>
     </row>
     <row r="290">
-      <c r="A290" s="26"/>
+      <c r="A290" s="37"/>
     </row>
     <row r="291">
-      <c r="A291" s="26"/>
+      <c r="A291" s="37"/>
     </row>
     <row r="292">
-      <c r="A292" s="26"/>
+      <c r="A292" s="37"/>
     </row>
     <row r="293">
-      <c r="A293" s="26"/>
+      <c r="A293" s="37"/>
     </row>
     <row r="294">
-      <c r="A294" s="26"/>
+      <c r="A294" s="37"/>
     </row>
     <row r="295">
-      <c r="A295" s="26"/>
+      <c r="A295" s="37"/>
     </row>
     <row r="296">
-      <c r="A296" s="26"/>
+      <c r="A296" s="37"/>
     </row>
     <row r="297">
-      <c r="A297" s="26"/>
+      <c r="A297" s="37"/>
     </row>
     <row r="298">
-      <c r="A298" s="26"/>
+      <c r="A298" s="37"/>
     </row>
     <row r="299">
-      <c r="A299" s="26"/>
+      <c r="A299" s="37"/>
     </row>
     <row r="300">
-      <c r="A300" s="26"/>
+      <c r="A300" s="37"/>
     </row>
     <row r="301">
-      <c r="A301" s="26"/>
+      <c r="A301" s="37"/>
     </row>
     <row r="302">
-      <c r="A302" s="26"/>
+      <c r="A302" s="37"/>
     </row>
     <row r="303">
-      <c r="A303" s="26"/>
+      <c r="A303" s="37"/>
     </row>
     <row r="304">
-      <c r="A304" s="26"/>
+      <c r="A304" s="37"/>
     </row>
     <row r="305">
-      <c r="A305" s="26"/>
+      <c r="A305" s="37"/>
     </row>
     <row r="306">
-      <c r="A306" s="26"/>
+      <c r="A306" s="37"/>
     </row>
     <row r="307">
-      <c r="A307" s="26"/>
+      <c r="A307" s="37"/>
     </row>
     <row r="308">
-      <c r="A308" s="26"/>
+      <c r="A308" s="37"/>
     </row>
     <row r="309">
-      <c r="A309" s="26"/>
+      <c r="A309" s="37"/>
     </row>
     <row r="310">
-      <c r="A310" s="26"/>
+      <c r="A310" s="37"/>
     </row>
     <row r="311">
-      <c r="A311" s="26"/>
+      <c r="A311" s="37"/>
     </row>
     <row r="312">
-      <c r="A312" s="26"/>
+      <c r="A312" s="37"/>
     </row>
     <row r="313">
-      <c r="A313" s="26"/>
+      <c r="A313" s="37"/>
     </row>
     <row r="314">
-      <c r="A314" s="26"/>
+      <c r="A314" s="37"/>
     </row>
     <row r="315">
-      <c r="A315" s="26"/>
+      <c r="A315" s="37"/>
     </row>
     <row r="316">
-      <c r="A316" s="26"/>
+      <c r="A316" s="37"/>
     </row>
     <row r="317">
-      <c r="A317" s="26"/>
+      <c r="A317" s="37"/>
     </row>
     <row r="318">
-      <c r="A318" s="26"/>
+      <c r="A318" s="37"/>
     </row>
     <row r="319">
-      <c r="A319" s="26"/>
+      <c r="A319" s="37"/>
     </row>
     <row r="320">
-      <c r="A320" s="26"/>
+      <c r="A320" s="37"/>
     </row>
     <row r="321">
-      <c r="A321" s="26"/>
+      <c r="A321" s="37"/>
     </row>
     <row r="322">
-      <c r="A322" s="26"/>
+      <c r="A322" s="37"/>
     </row>
     <row r="323">
-      <c r="A323" s="26"/>
+      <c r="A323" s="37"/>
     </row>
     <row r="324">
-      <c r="A324" s="26"/>
+      <c r="A324" s="37"/>
     </row>
     <row r="325">
-      <c r="A325" s="26"/>
+      <c r="A325" s="37"/>
     </row>
     <row r="326">
-      <c r="A326" s="26"/>
+      <c r="A326" s="37"/>
     </row>
     <row r="327">
-      <c r="A327" s="26"/>
+      <c r="A327" s="37"/>
     </row>
     <row r="328">
-      <c r="A328" s="26"/>
+      <c r="A328" s="37"/>
     </row>
     <row r="329">
-      <c r="A329" s="26"/>
+      <c r="A329" s="37"/>
     </row>
     <row r="330">
-      <c r="A330" s="26"/>
+      <c r="A330" s="37"/>
     </row>
     <row r="331">
-      <c r="A331" s="26"/>
+      <c r="A331" s="37"/>
     </row>
     <row r="332">
-      <c r="A332" s="26"/>
+      <c r="A332" s="37"/>
     </row>
     <row r="333">
-      <c r="A333" s="26"/>
+      <c r="A333" s="37"/>
     </row>
     <row r="334">
-      <c r="A334" s="26"/>
+      <c r="A334" s="37"/>
     </row>
     <row r="335">
-      <c r="A335" s="26"/>
+      <c r="A335" s="37"/>
     </row>
     <row r="336">
-      <c r="A336" s="26"/>
+      <c r="A336" s="37"/>
     </row>
     <row r="337">
-      <c r="A337" s="26"/>
+      <c r="A337" s="37"/>
     </row>
     <row r="338">
-      <c r="A338" s="26"/>
+      <c r="A338" s="37"/>
     </row>
     <row r="339">
-      <c r="A339" s="26"/>
+      <c r="A339" s="37"/>
     </row>
     <row r="340">
-      <c r="A340" s="26"/>
+      <c r="A340" s="37"/>
     </row>
     <row r="341">
-      <c r="A341" s="26"/>
+      <c r="A341" s="37"/>
     </row>
     <row r="342">
-      <c r="A342" s="26"/>
+      <c r="A342" s="37"/>
     </row>
     <row r="343">
-      <c r="A343" s="26"/>
+      <c r="A343" s="37"/>
     </row>
     <row r="344">
-      <c r="A344" s="26"/>
+      <c r="A344" s="37"/>
     </row>
     <row r="345">
-      <c r="A345" s="26"/>
+      <c r="A345" s="37"/>
     </row>
     <row r="346">
-      <c r="A346" s="26"/>
+      <c r="A346" s="37"/>
     </row>
     <row r="347">
-      <c r="A347" s="26"/>
+      <c r="A347" s="37"/>
     </row>
     <row r="348">
-      <c r="A348" s="26"/>
+      <c r="A348" s="37"/>
     </row>
     <row r="349">
-      <c r="A349" s="26"/>
+      <c r="A349" s="37"/>
     </row>
     <row r="350">
-      <c r="A350" s="26"/>
+      <c r="A350" s="37"/>
     </row>
     <row r="351">
-      <c r="A351" s="26"/>
+      <c r="A351" s="37"/>
     </row>
     <row r="352">
-      <c r="A352" s="26"/>
+      <c r="A352" s="37"/>
     </row>
     <row r="353">
-      <c r="A353" s="26"/>
+      <c r="A353" s="37"/>
     </row>
     <row r="354">
-      <c r="A354" s="26"/>
+      <c r="A354" s="37"/>
     </row>
     <row r="355">
-      <c r="A355" s="26"/>
+      <c r="A355" s="37"/>
     </row>
     <row r="356">
-      <c r="A356" s="26"/>
+      <c r="A356" s="37"/>
     </row>
     <row r="357">
-      <c r="A357" s="26"/>
+      <c r="A357" s="37"/>
     </row>
     <row r="358">
-      <c r="A358" s="26"/>
+      <c r="A358" s="37"/>
     </row>
     <row r="359">
-      <c r="A359" s="26"/>
+      <c r="A359" s="37"/>
     </row>
     <row r="360">
-      <c r="A360" s="26"/>
+      <c r="A360" s="37"/>
     </row>
     <row r="361">
-      <c r="A361" s="26"/>
+      <c r="A361" s="37"/>
     </row>
     <row r="362">
-      <c r="A362" s="26"/>
+      <c r="A362" s="37"/>
     </row>
     <row r="363">
-      <c r="A363" s="26"/>
+      <c r="A363" s="37"/>
     </row>
     <row r="364">
-      <c r="A364" s="26"/>
+      <c r="A364" s="37"/>
     </row>
     <row r="365">
-      <c r="A365" s="26"/>
+      <c r="A365" s="37"/>
     </row>
     <row r="366">
-      <c r="A366" s="26"/>
+      <c r="A366" s="37"/>
     </row>
     <row r="367">
-      <c r="A367" s="26"/>
+      <c r="A367" s="37"/>
     </row>
     <row r="368">
-      <c r="A368" s="26"/>
+      <c r="A368" s="37"/>
     </row>
     <row r="369">
-      <c r="A369" s="26"/>
+      <c r="A369" s="37"/>
     </row>
     <row r="370">
-      <c r="A370" s="26"/>
+      <c r="A370" s="37"/>
     </row>
     <row r="371">
-      <c r="A371" s="26"/>
+      <c r="A371" s="37"/>
     </row>
     <row r="372">
-      <c r="A372" s="26"/>
+      <c r="A372" s="37"/>
     </row>
     <row r="373">
-      <c r="A373" s="26"/>
+      <c r="A373" s="37"/>
     </row>
     <row r="374">
-      <c r="A374" s="26"/>
+      <c r="A374" s="37"/>
     </row>
     <row r="375">
-      <c r="A375" s="26"/>
+      <c r="A375" s="37"/>
     </row>
     <row r="376">
-      <c r="A376" s="26"/>
+      <c r="A376" s="37"/>
     </row>
     <row r="377">
-      <c r="A377" s="26"/>
+      <c r="A377" s="37"/>
     </row>
     <row r="378">
-      <c r="A378" s="26"/>
+      <c r="A378" s="37"/>
     </row>
     <row r="379">
-      <c r="A379" s="26"/>
+      <c r="A379" s="37"/>
     </row>
     <row r="380">
-      <c r="A380" s="26"/>
+      <c r="A380" s="37"/>
     </row>
     <row r="381">
-      <c r="A381" s="26"/>
+      <c r="A381" s="37"/>
     </row>
     <row r="382">
-      <c r="A382" s="26"/>
+      <c r="A382" s="37"/>
     </row>
     <row r="383">
-      <c r="A383" s="26"/>
+      <c r="A383" s="37"/>
     </row>
     <row r="384">
-      <c r="A384" s="26"/>
+      <c r="A384" s="37"/>
     </row>
     <row r="385">
-      <c r="A385" s="26"/>
+      <c r="A385" s="37"/>
     </row>
     <row r="386">
-      <c r="A386" s="26"/>
+      <c r="A386" s="37"/>
     </row>
     <row r="387">
-      <c r="A387" s="26"/>
+      <c r="A387" s="37"/>
     </row>
     <row r="388">
-      <c r="A388" s="26"/>
+      <c r="A388" s="37"/>
     </row>
     <row r="389">
-      <c r="A389" s="26"/>
+      <c r="A389" s="37"/>
     </row>
     <row r="390">
-      <c r="A390" s="26"/>
+      <c r="A390" s="37"/>
     </row>
     <row r="391">
-      <c r="A391" s="26"/>
+      <c r="A391" s="37"/>
     </row>
     <row r="392">
-      <c r="A392" s="26"/>
+      <c r="A392" s="37"/>
     </row>
     <row r="393">
-      <c r="A393" s="26"/>
+      <c r="A393" s="37"/>
     </row>
     <row r="394">
-      <c r="A394" s="26"/>
+      <c r="A394" s="37"/>
     </row>
     <row r="395">
-      <c r="A395" s="26"/>
+      <c r="A395" s="37"/>
     </row>
     <row r="396">
-      <c r="A396" s="26"/>
+      <c r="A396" s="37"/>
     </row>
     <row r="397">
-      <c r="A397" s="26"/>
+      <c r="A397" s="37"/>
     </row>
     <row r="398">
-      <c r="A398" s="26"/>
+      <c r="A398" s="37"/>
     </row>
     <row r="399">
-      <c r="A399" s="26"/>
+      <c r="A399" s="37"/>
     </row>
     <row r="400">
-      <c r="A400" s="26"/>
+      <c r="A400" s="37"/>
     </row>
     <row r="401">
-      <c r="A401" s="26"/>
+      <c r="A401" s="37"/>
     </row>
     <row r="402">
-      <c r="A402" s="26"/>
+      <c r="A402" s="37"/>
     </row>
     <row r="403">
-      <c r="A403" s="26"/>
+      <c r="A403" s="37"/>
     </row>
     <row r="404">
-      <c r="A404" s="26"/>
+      <c r="A404" s="37"/>
     </row>
     <row r="405">
-      <c r="A405" s="26"/>
+      <c r="A405" s="37"/>
     </row>
     <row r="406">
-      <c r="A406" s="26"/>
+      <c r="A406" s="37"/>
     </row>
     <row r="407">
-      <c r="A407" s="26"/>
+      <c r="A407" s="37"/>
     </row>
     <row r="408">
-      <c r="A408" s="26"/>
+      <c r="A408" s="37"/>
     </row>
     <row r="409">
-      <c r="A409" s="26"/>
+      <c r="A409" s="37"/>
     </row>
     <row r="410">
-      <c r="A410" s="26"/>
+      <c r="A410" s="37"/>
     </row>
     <row r="411">
-      <c r="A411" s="26"/>
+      <c r="A411" s="37"/>
     </row>
     <row r="412">
-      <c r="A412" s="26"/>
+      <c r="A412" s="37"/>
     </row>
     <row r="413">
-      <c r="A413" s="26"/>
+      <c r="A413" s="37"/>
     </row>
     <row r="414">
-      <c r="A414" s="26"/>
+      <c r="A414" s="37"/>
     </row>
     <row r="415">
-      <c r="A415" s="26"/>
+      <c r="A415" s="37"/>
     </row>
     <row r="416">
-      <c r="A416" s="26"/>
+      <c r="A416" s="37"/>
     </row>
     <row r="417">
-      <c r="A417" s="26"/>
+      <c r="A417" s="37"/>
     </row>
     <row r="418">
-      <c r="A418" s="26"/>
+      <c r="A418" s="37"/>
     </row>
     <row r="419">
-      <c r="A419" s="26"/>
+      <c r="A419" s="37"/>
     </row>
     <row r="420">
-      <c r="A420" s="26"/>
+      <c r="A420" s="37"/>
     </row>
     <row r="421">
-      <c r="A421" s="26"/>
+      <c r="A421" s="37"/>
     </row>
     <row r="422">
-      <c r="A422" s="26"/>
+      <c r="A422" s="37"/>
     </row>
     <row r="423">
-      <c r="A423" s="26"/>
+      <c r="A423" s="37"/>
     </row>
     <row r="424">
-      <c r="A424" s="26"/>
+      <c r="A424" s="37"/>
     </row>
     <row r="425">
-      <c r="A425" s="26"/>
+      <c r="A425" s="37"/>
     </row>
     <row r="426">
-      <c r="A426" s="26"/>
+      <c r="A426" s="37"/>
     </row>
     <row r="427">
-      <c r="A427" s="26"/>
+      <c r="A427" s="37"/>
     </row>
     <row r="428">
-      <c r="A428" s="26"/>
+      <c r="A428" s="37"/>
     </row>
     <row r="429">
-      <c r="A429" s="26"/>
+      <c r="A429" s="37"/>
     </row>
     <row r="430">
-      <c r="A430" s="26"/>
+      <c r="A430" s="37"/>
     </row>
     <row r="431">
-      <c r="A431" s="26"/>
+      <c r="A431" s="37"/>
     </row>
     <row r="432">
-      <c r="A432" s="26"/>
+      <c r="A432" s="37"/>
     </row>
     <row r="433">
-      <c r="A433" s="26"/>
+      <c r="A433" s="37"/>
     </row>
     <row r="434">
-      <c r="A434" s="26"/>
+      <c r="A434" s="37"/>
     </row>
     <row r="435">
-      <c r="A435" s="26"/>
+      <c r="A435" s="37"/>
     </row>
     <row r="436">
-      <c r="A436" s="26"/>
+      <c r="A436" s="37"/>
     </row>
     <row r="437">
-      <c r="A437" s="26"/>
+      <c r="A437" s="37"/>
     </row>
     <row r="438">
-      <c r="A438" s="26"/>
+      <c r="A438" s="37"/>
     </row>
     <row r="439">
-      <c r="A439" s="26"/>
+      <c r="A439" s="37"/>
     </row>
     <row r="440">
-      <c r="A440" s="26"/>
+      <c r="A440" s="37"/>
     </row>
     <row r="441">
-      <c r="A441" s="26"/>
+      <c r="A441" s="37"/>
     </row>
     <row r="442">
-      <c r="A442" s="26"/>
+      <c r="A442" s="37"/>
     </row>
     <row r="443">
-      <c r="A443" s="26"/>
+      <c r="A443" s="37"/>
     </row>
     <row r="444">
-      <c r="A444" s="26"/>
+      <c r="A444" s="37"/>
     </row>
     <row r="445">
-      <c r="A445" s="26"/>
+      <c r="A445" s="37"/>
     </row>
     <row r="446">
-      <c r="A446" s="26"/>
+      <c r="A446" s="37"/>
     </row>
     <row r="447">
-      <c r="A447" s="26"/>
+      <c r="A447" s="37"/>
     </row>
     <row r="448">
-      <c r="A448" s="26"/>
+      <c r="A448" s="37"/>
     </row>
     <row r="449">
-      <c r="A449" s="26"/>
+      <c r="A449" s="37"/>
     </row>
     <row r="450">
-      <c r="A450" s="26"/>
+      <c r="A450" s="37"/>
     </row>
     <row r="451">
-      <c r="A451" s="26"/>
+      <c r="A451" s="37"/>
     </row>
     <row r="452">
-      <c r="A452" s="26"/>
+      <c r="A452" s="37"/>
     </row>
     <row r="453">
-      <c r="A453" s="26"/>
+      <c r="A453" s="37"/>
     </row>
     <row r="454">
-      <c r="A454" s="26"/>
+      <c r="A454" s="37"/>
     </row>
     <row r="455">
-      <c r="A455" s="26"/>
+      <c r="A455" s="37"/>
     </row>
     <row r="456">
-      <c r="A456" s="26"/>
+      <c r="A456" s="37"/>
     </row>
     <row r="457">
-      <c r="A457" s="26"/>
+      <c r="A457" s="37"/>
     </row>
     <row r="458">
-      <c r="A458" s="26"/>
+      <c r="A458" s="37"/>
     </row>
     <row r="459">
-      <c r="A459" s="26"/>
+      <c r="A459" s="37"/>
     </row>
     <row r="460">
-      <c r="A460" s="26"/>
+      <c r="A460" s="37"/>
     </row>
     <row r="461">
-      <c r="A461" s="26"/>
+      <c r="A461" s="37"/>
     </row>
     <row r="462">
-      <c r="A462" s="26"/>
+      <c r="A462" s="37"/>
     </row>
     <row r="463">
-      <c r="A463" s="26"/>
+      <c r="A463" s="37"/>
     </row>
     <row r="464">
-      <c r="A464" s="26"/>
+      <c r="A464" s="37"/>
     </row>
     <row r="465">
-      <c r="A465" s="26"/>
+      <c r="A465" s="37"/>
     </row>
     <row r="466">
-      <c r="A466" s="26"/>
+      <c r="A466" s="37"/>
     </row>
     <row r="467">
-      <c r="A467" s="26"/>
+      <c r="A467" s="37"/>
     </row>
     <row r="468">
-      <c r="A468" s="26"/>
+      <c r="A468" s="37"/>
     </row>
     <row r="469">
-      <c r="A469" s="26"/>
+      <c r="A469" s="37"/>
     </row>
     <row r="470">
-      <c r="A470" s="26"/>
+      <c r="A470" s="37"/>
     </row>
     <row r="471">
-      <c r="A471" s="26"/>
+      <c r="A471" s="37"/>
     </row>
     <row r="472">
-      <c r="A472" s="26"/>
+      <c r="A472" s="37"/>
     </row>
     <row r="473">
-      <c r="A473" s="26"/>
+      <c r="A473" s="37"/>
     </row>
     <row r="474">
-      <c r="A474" s="26"/>
+      <c r="A474" s="37"/>
     </row>
     <row r="475">
-      <c r="A475" s="26"/>
+      <c r="A475" s="37"/>
     </row>
     <row r="476">
-      <c r="A476" s="26"/>
+      <c r="A476" s="37"/>
     </row>
     <row r="477">
-      <c r="A477" s="26"/>
+      <c r="A477" s="37"/>
     </row>
     <row r="478">
-      <c r="A478" s="26"/>
+      <c r="A478" s="37"/>
     </row>
     <row r="479">
-      <c r="A479" s="26"/>
+      <c r="A479" s="37"/>
     </row>
     <row r="480">
-      <c r="A480" s="26"/>
+      <c r="A480" s="37"/>
     </row>
     <row r="481">
-      <c r="A481" s="26"/>
+      <c r="A481" s="37"/>
     </row>
     <row r="482">
-      <c r="A482" s="26"/>
+      <c r="A482" s="37"/>
     </row>
     <row r="483">
-      <c r="A483" s="26"/>
+      <c r="A483" s="37"/>
     </row>
     <row r="484">
-      <c r="A484" s="26"/>
+      <c r="A484" s="37"/>
     </row>
     <row r="485">
-      <c r="A485" s="26"/>
+      <c r="A485" s="37"/>
     </row>
     <row r="486">
-      <c r="A486" s="26"/>
+      <c r="A486" s="37"/>
     </row>
     <row r="487">
-      <c r="A487" s="26"/>
+      <c r="A487" s="37"/>
     </row>
     <row r="488">
-      <c r="A488" s="26"/>
+      <c r="A488" s="37"/>
     </row>
     <row r="489">
-      <c r="A489" s="26"/>
+      <c r="A489" s="37"/>
     </row>
     <row r="490">
-      <c r="A490" s="26"/>
+      <c r="A490" s="37"/>
     </row>
     <row r="491">
-      <c r="A491" s="26"/>
+      <c r="A491" s="37"/>
     </row>
     <row r="492">
-      <c r="A492" s="26"/>
+      <c r="A492" s="37"/>
     </row>
     <row r="493">
-      <c r="A493" s="26"/>
+      <c r="A493" s="37"/>
     </row>
     <row r="494">
-      <c r="A494" s="26"/>
+      <c r="A494" s="37"/>
     </row>
     <row r="495">
-      <c r="A495" s="26"/>
+      <c r="A495" s="37"/>
     </row>
     <row r="496">
-      <c r="A496" s="26"/>
+      <c r="A496" s="37"/>
     </row>
     <row r="497">
-      <c r="A497" s="26"/>
+      <c r="A497" s="37"/>
     </row>
     <row r="498">
-      <c r="A498" s="26"/>
+      <c r="A498" s="37"/>
     </row>
     <row r="499">
-      <c r="A499" s="26"/>
+      <c r="A499" s="37"/>
     </row>
     <row r="500">
-      <c r="A500" s="26"/>
+      <c r="A500" s="37"/>
     </row>
     <row r="501">
-      <c r="A501" s="26"/>
+      <c r="A501" s="37"/>
     </row>
     <row r="502">
-      <c r="A502" s="26"/>
+      <c r="A502" s="37"/>
     </row>
     <row r="503">
-      <c r="A503" s="26"/>
+      <c r="A503" s="37"/>
     </row>
     <row r="504">
-      <c r="A504" s="26"/>
+      <c r="A504" s="37"/>
     </row>
     <row r="505">
-      <c r="A505" s="26"/>
+      <c r="A505" s="37"/>
     </row>
     <row r="506">
-      <c r="A506" s="26"/>
+      <c r="A506" s="37"/>
     </row>
     <row r="507">
-      <c r="A507" s="26"/>
+      <c r="A507" s="37"/>
     </row>
     <row r="508">
-      <c r="A508" s="26"/>
+      <c r="A508" s="37"/>
     </row>
     <row r="509">
-      <c r="A509" s="26"/>
+      <c r="A509" s="37"/>
     </row>
     <row r="510">
-      <c r="A510" s="26"/>
+      <c r="A510" s="37"/>
     </row>
     <row r="511">
-      <c r="A511" s="26"/>
+      <c r="A511" s="37"/>
     </row>
     <row r="512">
-      <c r="A512" s="26"/>
+      <c r="A512" s="37"/>
     </row>
     <row r="513">
-      <c r="A513" s="26"/>
+      <c r="A513" s="37"/>
     </row>
     <row r="514">
-      <c r="A514" s="26"/>
+      <c r="A514" s="37"/>
     </row>
     <row r="515">
-      <c r="A515" s="26"/>
+      <c r="A515" s="37"/>
     </row>
     <row r="516">
-      <c r="A516" s="26"/>
+      <c r="A516" s="37"/>
     </row>
     <row r="517">
-      <c r="A517" s="26"/>
+      <c r="A517" s="37"/>
     </row>
     <row r="518">
-      <c r="A518" s="26"/>
+      <c r="A518" s="37"/>
     </row>
     <row r="519">
-      <c r="A519" s="26"/>
+      <c r="A519" s="37"/>
     </row>
     <row r="520">
-      <c r="A520" s="26"/>
+      <c r="A520" s="37"/>
     </row>
     <row r="521">
-      <c r="A521" s="26"/>
+      <c r="A521" s="37"/>
     </row>
     <row r="522">
-      <c r="A522" s="26"/>
+      <c r="A522" s="37"/>
     </row>
     <row r="523">
-      <c r="A523" s="26"/>
+      <c r="A523" s="37"/>
     </row>
     <row r="524">
-      <c r="A524" s="26"/>
+      <c r="A524" s="37"/>
     </row>
     <row r="525">
-      <c r="A525" s="26"/>
+      <c r="A525" s="37"/>
     </row>
     <row r="526">
-      <c r="A526" s="26"/>
+      <c r="A526" s="37"/>
     </row>
     <row r="527">
-      <c r="A527" s="26"/>
+      <c r="A527" s="37"/>
     </row>
     <row r="528">
-      <c r="A528" s="26"/>
+      <c r="A528" s="37"/>
     </row>
     <row r="529">
-      <c r="A529" s="26"/>
+      <c r="A529" s="37"/>
     </row>
     <row r="530">
-      <c r="A530" s="26"/>
+      <c r="A530" s="37"/>
     </row>
     <row r="531">
-      <c r="A531" s="26"/>
+      <c r="A531" s="37"/>
     </row>
     <row r="532">
-      <c r="A532" s="26"/>
+      <c r="A532" s="37"/>
     </row>
     <row r="533">
-      <c r="A533" s="26"/>
+      <c r="A533" s="37"/>
     </row>
     <row r="534">
-      <c r="A534" s="26"/>
+      <c r="A534" s="37"/>
     </row>
     <row r="535">
-      <c r="A535" s="26"/>
+      <c r="A535" s="37"/>
     </row>
     <row r="536">
-      <c r="A536" s="26"/>
+      <c r="A536" s="37"/>
     </row>
     <row r="537">
-      <c r="A537" s="26"/>
+      <c r="A537" s="37"/>
     </row>
     <row r="538">
-      <c r="A538" s="26"/>
+      <c r="A538" s="37"/>
     </row>
     <row r="539">
-      <c r="A539" s="26"/>
+      <c r="A539" s="37"/>
     </row>
     <row r="540">
-      <c r="A540" s="26"/>
+      <c r="A540" s="37"/>
     </row>
     <row r="541">
-      <c r="A541" s="26"/>
+      <c r="A541" s="37"/>
     </row>
     <row r="542">
-      <c r="A542" s="26"/>
+      <c r="A542" s="37"/>
     </row>
     <row r="543">
-      <c r="A543" s="26"/>
+      <c r="A543" s="37"/>
     </row>
     <row r="544">
-      <c r="A544" s="26"/>
+      <c r="A544" s="37"/>
     </row>
     <row r="545">
-      <c r="A545" s="26"/>
+      <c r="A545" s="37"/>
     </row>
     <row r="546">
-      <c r="A546" s="26"/>
+      <c r="A546" s="37"/>
     </row>
     <row r="547">
-      <c r="A547" s="26"/>
+      <c r="A547" s="37"/>
     </row>
     <row r="548">
-      <c r="A548" s="26"/>
+      <c r="A548" s="37"/>
     </row>
     <row r="549">
-      <c r="A549" s="26"/>
+      <c r="A549" s="37"/>
     </row>
     <row r="550">
-      <c r="A550" s="26"/>
+      <c r="A550" s="37"/>
     </row>
     <row r="551">
-      <c r="A551" s="26"/>
+      <c r="A551" s="37"/>
     </row>
     <row r="552">
-      <c r="A552" s="26"/>
+      <c r="A552" s="37"/>
     </row>
     <row r="553">
-      <c r="A553" s="26"/>
+      <c r="A553" s="37"/>
     </row>
     <row r="554">
-      <c r="A554" s="26"/>
+      <c r="A554" s="37"/>
     </row>
     <row r="555">
-      <c r="A555" s="26"/>
+      <c r="A555" s="37"/>
     </row>
     <row r="556">
-      <c r="A556" s="26"/>
+      <c r="A556" s="37"/>
     </row>
     <row r="557">
-      <c r="A557" s="26"/>
+      <c r="A557" s="37"/>
     </row>
     <row r="558">
-      <c r="A558" s="26"/>
+      <c r="A558" s="37"/>
     </row>
     <row r="559">
-      <c r="A559" s="26"/>
+      <c r="A559" s="37"/>
     </row>
     <row r="560">
-      <c r="A560" s="26"/>
+      <c r="A560" s="37"/>
     </row>
     <row r="561">
-      <c r="A561" s="26"/>
+      <c r="A561" s="37"/>
     </row>
     <row r="562">
-      <c r="A562" s="26"/>
+      <c r="A562" s="37"/>
     </row>
     <row r="563">
-      <c r="A563" s="26"/>
+      <c r="A563" s="37"/>
     </row>
     <row r="564">
-      <c r="A564" s="26"/>
+      <c r="A564" s="37"/>
     </row>
     <row r="565">
-      <c r="A565" s="26"/>
+      <c r="A565" s="37"/>
     </row>
     <row r="566">
-      <c r="A566" s="26"/>
+      <c r="A566" s="37"/>
     </row>
     <row r="567">
-      <c r="A567" s="26"/>
+      <c r="A567" s="37"/>
     </row>
     <row r="568">
-      <c r="A568" s="26"/>
+      <c r="A568" s="37"/>
     </row>
     <row r="569">
-      <c r="A569" s="26"/>
+      <c r="A569" s="37"/>
     </row>
     <row r="570">
-      <c r="A570" s="26"/>
+      <c r="A570" s="37"/>
     </row>
     <row r="571">
-      <c r="A571" s="26"/>
+      <c r="A571" s="37"/>
     </row>
     <row r="572">
-      <c r="A572" s="26"/>
+      <c r="A572" s="37"/>
     </row>
     <row r="573">
-      <c r="A573" s="26"/>
+      <c r="A573" s="37"/>
     </row>
     <row r="574">
-      <c r="A574" s="26"/>
+      <c r="A574" s="37"/>
     </row>
     <row r="575">
-      <c r="A575" s="26"/>
+      <c r="A575" s="37"/>
     </row>
     <row r="576">
-      <c r="A576" s="26"/>
+      <c r="A576" s="37"/>
     </row>
     <row r="577">
-      <c r="A577" s="26"/>
+      <c r="A577" s="37"/>
     </row>
     <row r="578">
-      <c r="A578" s="26"/>
+      <c r="A578" s="37"/>
     </row>
     <row r="579">
-      <c r="A579" s="26"/>
+      <c r="A579" s="37"/>
     </row>
     <row r="580">
-      <c r="A580" s="26"/>
+      <c r="A580" s="37"/>
     </row>
     <row r="581">
-      <c r="A581" s="26"/>
+      <c r="A581" s="37"/>
     </row>
     <row r="582">
-      <c r="A582" s="26"/>
+      <c r="A582" s="37"/>
     </row>
     <row r="583">
-      <c r="A583" s="26"/>
+      <c r="A583" s="37"/>
     </row>
     <row r="584">
-      <c r="A584" s="26"/>
+      <c r="A584" s="37"/>
     </row>
     <row r="585">
-      <c r="A585" s="26"/>
+      <c r="A585" s="37"/>
     </row>
     <row r="586">
-      <c r="A586" s="26"/>
+      <c r="A586" s="37"/>
     </row>
     <row r="587">
-      <c r="A587" s="26"/>
+      <c r="A587" s="37"/>
     </row>
     <row r="588">
-      <c r="A588" s="26"/>
+      <c r="A588" s="37"/>
     </row>
     <row r="589">
-      <c r="A589" s="26"/>
+      <c r="A589" s="37"/>
     </row>
     <row r="590">
-      <c r="A590" s="26"/>
+      <c r="A590" s="37"/>
     </row>
     <row r="591">
-      <c r="A591" s="26"/>
+      <c r="A591" s="37"/>
     </row>
     <row r="592">
-      <c r="A592" s="26"/>
+      <c r="A592" s="37"/>
     </row>
     <row r="593">
-      <c r="A593" s="26"/>
+      <c r="A593" s="37"/>
     </row>
     <row r="594">
-      <c r="A594" s="26"/>
+      <c r="A594" s="37"/>
     </row>
     <row r="595">
-      <c r="A595" s="26"/>
+      <c r="A595" s="37"/>
     </row>
     <row r="596">
-      <c r="A596" s="26"/>
+      <c r="A596" s="37"/>
     </row>
     <row r="597">
-      <c r="A597" s="26"/>
+      <c r="A597" s="37"/>
     </row>
     <row r="598">
-      <c r="A598" s="26"/>
+      <c r="A598" s="37"/>
     </row>
     <row r="599">
-      <c r="A599" s="26"/>
+      <c r="A599" s="37"/>
     </row>
     <row r="600">
-      <c r="A600" s="26"/>
+      <c r="A600" s="37"/>
     </row>
     <row r="601">
-      <c r="A601" s="26"/>
+      <c r="A601" s="37"/>
     </row>
     <row r="602">
-      <c r="A602" s="26"/>
+      <c r="A602" s="37"/>
     </row>
     <row r="603">
-      <c r="A603" s="26"/>
+      <c r="A603" s="37"/>
     </row>
     <row r="604">
-      <c r="A604" s="26"/>
+      <c r="A604" s="37"/>
     </row>
     <row r="605">
-      <c r="A605" s="26"/>
+      <c r="A605" s="37"/>
     </row>
     <row r="606">
-      <c r="A606" s="26"/>
+      <c r="A606" s="37"/>
     </row>
     <row r="607">
-      <c r="A607" s="26"/>
+      <c r="A607" s="37"/>
     </row>
     <row r="608">
-      <c r="A608" s="26"/>
+      <c r="A608" s="37"/>
     </row>
     <row r="609">
-      <c r="A609" s="26"/>
+      <c r="A609" s="37"/>
     </row>
     <row r="610">
-      <c r="A610" s="26"/>
+      <c r="A610" s="37"/>
     </row>
     <row r="611">
-      <c r="A611" s="26"/>
+      <c r="A611" s="37"/>
     </row>
     <row r="612">
-      <c r="A612" s="26"/>
+      <c r="A612" s="37"/>
     </row>
     <row r="613">
-      <c r="A613" s="26"/>
+      <c r="A613" s="37"/>
     </row>
     <row r="614">
-      <c r="A614" s="26"/>
+      <c r="A614" s="37"/>
     </row>
     <row r="615">
-      <c r="A615" s="26"/>
+      <c r="A615" s="37"/>
     </row>
     <row r="616">
-      <c r="A616" s="26"/>
+      <c r="A616" s="37"/>
     </row>
     <row r="617">
-      <c r="A617" s="26"/>
+      <c r="A617" s="37"/>
     </row>
     <row r="618">
-      <c r="A618" s="26"/>
+      <c r="A618" s="37"/>
     </row>
     <row r="619">
-      <c r="A619" s="26"/>
+      <c r="A619" s="37"/>
     </row>
     <row r="620">
-      <c r="A620" s="26"/>
+      <c r="A620" s="37"/>
     </row>
     <row r="621">
-      <c r="A621" s="26"/>
+      <c r="A621" s="37"/>
     </row>
     <row r="622">
-      <c r="A622" s="26"/>
+      <c r="A622" s="37"/>
     </row>
     <row r="623">
-      <c r="A623" s="26"/>
+      <c r="A623" s="37"/>
     </row>
     <row r="624">
-      <c r="A624" s="26"/>
+      <c r="A624" s="37"/>
     </row>
     <row r="625">
-      <c r="A625" s="26"/>
+      <c r="A625" s="37"/>
     </row>
     <row r="626">
-      <c r="A626" s="26"/>
+      <c r="A626" s="37"/>
     </row>
     <row r="627">
-      <c r="A627" s="26"/>
+      <c r="A627" s="37"/>
     </row>
     <row r="628">
-      <c r="A628" s="26"/>
+      <c r="A628" s="37"/>
     </row>
     <row r="629">
-      <c r="A629" s="26"/>
+      <c r="A629" s="37"/>
     </row>
     <row r="630">
-      <c r="A630" s="26"/>
+      <c r="A630" s="37"/>
     </row>
     <row r="631">
-      <c r="A631" s="26"/>
+      <c r="A631" s="37"/>
     </row>
     <row r="632">
-      <c r="A632" s="26"/>
+      <c r="A632" s="37"/>
     </row>
     <row r="633">
-      <c r="A633" s="26"/>
+      <c r="A633" s="37"/>
     </row>
     <row r="634">
-      <c r="A634" s="26"/>
+      <c r="A634" s="37"/>
     </row>
     <row r="635">
-      <c r="A635" s="26"/>
+      <c r="A635" s="37"/>
     </row>
     <row r="636">
-      <c r="A636" s="26"/>
+      <c r="A636" s="37"/>
     </row>
     <row r="637">
-      <c r="A637" s="26"/>
+      <c r="A637" s="37"/>
     </row>
     <row r="638">
-      <c r="A638" s="26"/>
+      <c r="A638" s="37"/>
     </row>
     <row r="639">
-      <c r="A639" s="26"/>
+      <c r="A639" s="37"/>
     </row>
     <row r="640">
-      <c r="A640" s="26"/>
+      <c r="A640" s="37"/>
     </row>
     <row r="641">
-      <c r="A641" s="26"/>
+      <c r="A641" s="37"/>
     </row>
     <row r="642">
-      <c r="A642" s="26"/>
+      <c r="A642" s="37"/>
     </row>
     <row r="643">
-      <c r="A643" s="26"/>
+      <c r="A643" s="37"/>
     </row>
     <row r="644">
-      <c r="A644" s="26"/>
+      <c r="A644" s="37"/>
     </row>
     <row r="645">
-      <c r="A645" s="26"/>
+      <c r="A645" s="37"/>
     </row>
     <row r="646">
-      <c r="A646" s="26"/>
+      <c r="A646" s="37"/>
     </row>
     <row r="647">
-      <c r="A647" s="26"/>
+      <c r="A647" s="37"/>
     </row>
     <row r="648">
-      <c r="A648" s="26"/>
+      <c r="A648" s="37"/>
     </row>
     <row r="649">
-      <c r="A649" s="26"/>
+      <c r="A649" s="37"/>
     </row>
     <row r="650">
-      <c r="A650" s="26"/>
+      <c r="A650" s="37"/>
     </row>
     <row r="651">
-      <c r="A651" s="26"/>
+      <c r="A651" s="37"/>
     </row>
     <row r="652">
-      <c r="A652" s="26"/>
+      <c r="A652" s="37"/>
     </row>
     <row r="653">
-      <c r="A653" s="26"/>
+      <c r="A653" s="37"/>
     </row>
     <row r="654">
-      <c r="A654" s="26"/>
+      <c r="A654" s="37"/>
     </row>
     <row r="655">
-      <c r="A655" s="26"/>
+      <c r="A655" s="37"/>
     </row>
     <row r="656">
-      <c r="A656" s="26"/>
+      <c r="A656" s="37"/>
     </row>
     <row r="657">
-      <c r="A657" s="26"/>
+      <c r="A657" s="37"/>
     </row>
     <row r="658">
-      <c r="A658" s="26"/>
+      <c r="A658" s="37"/>
     </row>
     <row r="659">
-      <c r="A659" s="26"/>
+      <c r="A659" s="37"/>
     </row>
     <row r="660">
-      <c r="A660" s="26"/>
+      <c r="A660" s="37"/>
     </row>
     <row r="661">
-      <c r="A661" s="26"/>
+      <c r="A661" s="37"/>
     </row>
     <row r="662">
-      <c r="A662" s="26"/>
+      <c r="A662" s="37"/>
     </row>
     <row r="663">
-      <c r="A663" s="26"/>
+      <c r="A663" s="37"/>
     </row>
     <row r="664">
-      <c r="A664" s="26"/>
+      <c r="A664" s="37"/>
     </row>
     <row r="665">
-      <c r="A665" s="26"/>
+      <c r="A665" s="37"/>
     </row>
     <row r="666">
-      <c r="A666" s="26"/>
+      <c r="A666" s="37"/>
     </row>
     <row r="667">
-      <c r="A667" s="26"/>
+      <c r="A667" s="37"/>
     </row>
     <row r="668">
-      <c r="A668" s="26"/>
+      <c r="A668" s="37"/>
     </row>
     <row r="669">
-      <c r="A669" s="26"/>
+      <c r="A669" s="37"/>
     </row>
     <row r="670">
-      <c r="A670" s="26"/>
+      <c r="A670" s="37"/>
     </row>
     <row r="671">
-      <c r="A671" s="26"/>
+      <c r="A671" s="37"/>
     </row>
     <row r="672">
-      <c r="A672" s="26"/>
+      <c r="A672" s="37"/>
     </row>
     <row r="673">
-      <c r="A673" s="26"/>
+      <c r="A673" s="37"/>
     </row>
     <row r="674">
-      <c r="A674" s="26"/>
+      <c r="A674" s="37"/>
     </row>
     <row r="675">
-      <c r="A675" s="26"/>
+      <c r="A675" s="37"/>
     </row>
     <row r="676">
-      <c r="A676" s="26"/>
+      <c r="A676" s="37"/>
     </row>
     <row r="677">
-      <c r="A677" s="26"/>
+      <c r="A677" s="37"/>
     </row>
     <row r="678">
-      <c r="A678" s="26"/>
+      <c r="A678" s="37"/>
     </row>
     <row r="679">
-      <c r="A679" s="26"/>
+      <c r="A679" s="37"/>
     </row>
     <row r="680">
-      <c r="A680" s="26"/>
+      <c r="A680" s="37"/>
     </row>
     <row r="681">
-      <c r="A681" s="26"/>
+      <c r="A681" s="37"/>
     </row>
     <row r="682">
-      <c r="A682" s="26"/>
+      <c r="A682" s="37"/>
     </row>
     <row r="683">
-      <c r="A683" s="26"/>
+      <c r="A683" s="37"/>
     </row>
     <row r="684">
-      <c r="A684" s="26"/>
+      <c r="A684" s="37"/>
     </row>
     <row r="685">
-      <c r="A685" s="26"/>
+      <c r="A685" s="37"/>
     </row>
     <row r="686">
-      <c r="A686" s="26"/>
+      <c r="A686" s="37"/>
     </row>
     <row r="687">
-      <c r="A687" s="26"/>
+      <c r="A687" s="37"/>
     </row>
     <row r="688">
-      <c r="A688" s="26"/>
+      <c r="A688" s="37"/>
     </row>
     <row r="689">
-      <c r="A689" s="26"/>
+      <c r="A689" s="37"/>
     </row>
     <row r="690">
-      <c r="A690" s="26"/>
+      <c r="A690" s="37"/>
     </row>
     <row r="691">
-      <c r="A691" s="26"/>
+      <c r="A691" s="37"/>
     </row>
     <row r="692">
-      <c r="A692" s="26"/>
+      <c r="A692" s="37"/>
     </row>
     <row r="693">
-      <c r="A693" s="26"/>
+      <c r="A693" s="37"/>
     </row>
     <row r="694">
-      <c r="A694" s="26"/>
+      <c r="A694" s="37"/>
     </row>
     <row r="695">
-      <c r="A695" s="26"/>
+      <c r="A695" s="37"/>
     </row>
     <row r="696">
-      <c r="A696" s="26"/>
+      <c r="A696" s="37"/>
     </row>
     <row r="697">
-      <c r="A697" s="26"/>
+      <c r="A697" s="37"/>
     </row>
     <row r="698">
-      <c r="A698" s="26"/>
+      <c r="A698" s="37"/>
     </row>
     <row r="699">
-      <c r="A699" s="26"/>
+      <c r="A699" s="37"/>
     </row>
     <row r="700">
-      <c r="A700" s="26"/>
+      <c r="A700" s="37"/>
     </row>
     <row r="701">
-      <c r="A701" s="26"/>
+      <c r="A701" s="37"/>
     </row>
     <row r="702">
-      <c r="A702" s="26"/>
+      <c r="A702" s="37"/>
     </row>
     <row r="703">
-      <c r="A703" s="26"/>
+      <c r="A703" s="37"/>
     </row>
     <row r="704">
-      <c r="A704" s="26"/>
+      <c r="A704" s="37"/>
     </row>
     <row r="705">
-      <c r="A705" s="26"/>
+      <c r="A705" s="37"/>
     </row>
     <row r="706">
-      <c r="A706" s="26"/>
+      <c r="A706" s="37"/>
     </row>
     <row r="707">
-      <c r="A707" s="26"/>
+      <c r="A707" s="37"/>
     </row>
     <row r="708">
-      <c r="A708" s="26"/>
+      <c r="A708" s="37"/>
     </row>
     <row r="709">
-      <c r="A709" s="26"/>
+      <c r="A709" s="37"/>
     </row>
     <row r="710">
-      <c r="A710" s="26"/>
+      <c r="A710" s="37"/>
     </row>
     <row r="711">
-      <c r="A711" s="26"/>
+      <c r="A711" s="37"/>
     </row>
     <row r="712">
-      <c r="A712" s="26"/>
+      <c r="A712" s="37"/>
     </row>
     <row r="713">
-      <c r="A713" s="26"/>
+      <c r="A713" s="37"/>
     </row>
     <row r="714">
-      <c r="A714" s="26"/>
+      <c r="A714" s="37"/>
     </row>
     <row r="715">
-      <c r="A715" s="26"/>
+      <c r="A715" s="37"/>
     </row>
     <row r="716">
-      <c r="A716" s="26"/>
+      <c r="A716" s="37"/>
     </row>
     <row r="717">
-      <c r="A717" s="26"/>
+      <c r="A717" s="37"/>
     </row>
     <row r="718">
-      <c r="A718" s="26"/>
+      <c r="A718" s="37"/>
     </row>
     <row r="719">
-      <c r="A719" s="26"/>
+      <c r="A719" s="37"/>
     </row>
     <row r="720">
-      <c r="A720" s="26"/>
+      <c r="A720" s="37"/>
     </row>
     <row r="721">
-      <c r="A721" s="26"/>
+      <c r="A721" s="37"/>
     </row>
     <row r="722">
-      <c r="A722" s="26"/>
+      <c r="A722" s="37"/>
     </row>
     <row r="723">
-      <c r="A723" s="26"/>
+      <c r="A723" s="37"/>
     </row>
     <row r="724">
-      <c r="A724" s="26"/>
+      <c r="A724" s="37"/>
     </row>
     <row r="725">
-      <c r="A725" s="26"/>
+      <c r="A725" s="37"/>
     </row>
     <row r="726">
-      <c r="A726" s="26"/>
+      <c r="A726" s="37"/>
     </row>
     <row r="727">
-      <c r="A727" s="26"/>
+      <c r="A727" s="37"/>
     </row>
     <row r="728">
-      <c r="A728" s="26"/>
+      <c r="A728" s="37"/>
     </row>
     <row r="729">
-      <c r="A729" s="26"/>
+      <c r="A729" s="37"/>
     </row>
     <row r="730">
-      <c r="A730" s="26"/>
+      <c r="A730" s="37"/>
     </row>
     <row r="731">
-      <c r="A731" s="26"/>
+      <c r="A731" s="37"/>
     </row>
     <row r="732">
-      <c r="A732" s="26"/>
+      <c r="A732" s="37"/>
     </row>
     <row r="733">
-      <c r="A733" s="26"/>
+      <c r="A733" s="37"/>
     </row>
     <row r="734">
-      <c r="A734" s="26"/>
+      <c r="A734" s="37"/>
     </row>
     <row r="735">
-      <c r="A735" s="26"/>
+      <c r="A735" s="37"/>
     </row>
     <row r="736">
-      <c r="A736" s="26"/>
+      <c r="A736" s="37"/>
     </row>
     <row r="737">
-      <c r="A737" s="26"/>
+      <c r="A737" s="37"/>
     </row>
     <row r="738">
-      <c r="A738" s="26"/>
+      <c r="A738" s="37"/>
     </row>
     <row r="739">
-      <c r="A739" s="26"/>
+      <c r="A739" s="37"/>
     </row>
     <row r="740">
-      <c r="A740" s="26"/>
+      <c r="A740" s="37"/>
     </row>
     <row r="741">
-      <c r="A741" s="26"/>
+      <c r="A741" s="37"/>
     </row>
     <row r="742">
-      <c r="A742" s="26"/>
+      <c r="A742" s="37"/>
     </row>
     <row r="743">
-      <c r="A743" s="26"/>
+      <c r="A743" s="37"/>
     </row>
     <row r="744">
-      <c r="A744" s="26"/>
+      <c r="A744" s="37"/>
     </row>
     <row r="745">
-      <c r="A745" s="26"/>
+      <c r="A745" s="37"/>
     </row>
     <row r="746">
-      <c r="A746" s="26"/>
+      <c r="A746" s="37"/>
     </row>
     <row r="747">
-      <c r="A747" s="26"/>
+      <c r="A747" s="37"/>
     </row>
     <row r="748">
-      <c r="A748" s="26"/>
+      <c r="A748" s="37"/>
     </row>
     <row r="749">
-      <c r="A749" s="26"/>
+      <c r="A749" s="37"/>
     </row>
     <row r="750">
-      <c r="A750" s="26"/>
+      <c r="A750" s="37"/>
     </row>
     <row r="751">
-      <c r="A751" s="26"/>
+      <c r="A751" s="37"/>
     </row>
     <row r="752">
-      <c r="A752" s="26"/>
+      <c r="A752" s="37"/>
     </row>
     <row r="753">
-      <c r="A753" s="26"/>
+      <c r="A753" s="37"/>
     </row>
     <row r="754">
-      <c r="A754" s="26"/>
+      <c r="A754" s="37"/>
     </row>
     <row r="755">
-      <c r="A755" s="26"/>
+      <c r="A755" s="37"/>
     </row>
     <row r="756">
-      <c r="A756" s="26"/>
+      <c r="A756" s="37"/>
     </row>
     <row r="757">
-      <c r="A757" s="26"/>
+      <c r="A757" s="37"/>
     </row>
     <row r="758">
-      <c r="A758" s="26"/>
+      <c r="A758" s="37"/>
     </row>
     <row r="759">
-      <c r="A759" s="26"/>
+      <c r="A759" s="37"/>
     </row>
     <row r="760">
-      <c r="A760" s="26"/>
+      <c r="A760" s="37"/>
     </row>
     <row r="761">
-      <c r="A761" s="26"/>
+      <c r="A761" s="37"/>
     </row>
     <row r="762">
-      <c r="A762" s="26"/>
+      <c r="A762" s="37"/>
     </row>
     <row r="763">
-      <c r="A763" s="26"/>
+      <c r="A763" s="37"/>
     </row>
     <row r="764">
-      <c r="A764" s="26"/>
+      <c r="A764" s="37"/>
     </row>
     <row r="765">
-      <c r="A765" s="26"/>
+      <c r="A765" s="37"/>
     </row>
     <row r="766">
-      <c r="A766" s="26"/>
+      <c r="A766" s="37"/>
     </row>
     <row r="767">
-      <c r="A767" s="26"/>
+      <c r="A767" s="37"/>
     </row>
     <row r="768">
-      <c r="A768" s="26"/>
+      <c r="A768" s="37"/>
     </row>
     <row r="769">
-      <c r="A769" s="26"/>
+      <c r="A769" s="37"/>
     </row>
     <row r="770">
-      <c r="A770" s="26"/>
+      <c r="A770" s="37"/>
     </row>
     <row r="771">
-      <c r="A771" s="26"/>
+      <c r="A771" s="37"/>
     </row>
     <row r="772">
-      <c r="A772" s="26"/>
+      <c r="A772" s="37"/>
     </row>
     <row r="773">
-      <c r="A773" s="26"/>
+      <c r="A773" s="37"/>
     </row>
     <row r="774">
-      <c r="A774" s="26"/>
+      <c r="A774" s="37"/>
     </row>
     <row r="775">
-      <c r="A775" s="26"/>
+      <c r="A775" s="37"/>
     </row>
     <row r="776">
-      <c r="A776" s="26"/>
+      <c r="A776" s="37"/>
     </row>
     <row r="777">
-      <c r="A777" s="26"/>
+      <c r="A777" s="37"/>
     </row>
     <row r="778">
-      <c r="A778" s="26"/>
+      <c r="A778" s="37"/>
     </row>
     <row r="779">
-      <c r="A779" s="26"/>
+      <c r="A779" s="37"/>
     </row>
     <row r="780">
-      <c r="A780" s="26"/>
+      <c r="A780" s="37"/>
     </row>
     <row r="781">
-      <c r="A781" s="26"/>
+      <c r="A781" s="37"/>
     </row>
     <row r="782">
-      <c r="A782" s="26"/>
+      <c r="A782" s="37"/>
     </row>
     <row r="783">
-      <c r="A783" s="26"/>
+      <c r="A783" s="37"/>
     </row>
     <row r="784">
-      <c r="A784" s="26"/>
+      <c r="A784" s="37"/>
     </row>
     <row r="785">
-      <c r="A785" s="26"/>
+      <c r="A785" s="37"/>
     </row>
     <row r="786">
-      <c r="A786" s="26"/>
+      <c r="A786" s="37"/>
     </row>
     <row r="787">
-      <c r="A787" s="26"/>
+      <c r="A787" s="37"/>
     </row>
     <row r="788">
-      <c r="A788" s="26"/>
+      <c r="A788" s="37"/>
     </row>
     <row r="789">
-      <c r="A789" s="26"/>
+      <c r="A789" s="37"/>
     </row>
     <row r="790">
-      <c r="A790" s="26"/>
+      <c r="A790" s="37"/>
     </row>
     <row r="791">
-      <c r="A791" s="26"/>
+      <c r="A791" s="37"/>
     </row>
     <row r="792">
-      <c r="A792" s="26"/>
+      <c r="A792" s="37"/>
     </row>
     <row r="793">
-      <c r="A793" s="26"/>
+      <c r="A793" s="37"/>
     </row>
     <row r="794">
-      <c r="A794" s="26"/>
+      <c r="A794" s="37"/>
     </row>
     <row r="795">
-      <c r="A795" s="26"/>
+      <c r="A795" s="37"/>
     </row>
     <row r="796">
-      <c r="A796" s="26"/>
+      <c r="A796" s="37"/>
     </row>
     <row r="797">
-      <c r="A797" s="26"/>
+      <c r="A797" s="37"/>
     </row>
     <row r="798">
-      <c r="A798" s="26"/>
+      <c r="A798" s="37"/>
     </row>
     <row r="799">
-      <c r="A799" s="26"/>
+      <c r="A799" s="37"/>
     </row>
     <row r="800">
-      <c r="A800" s="26"/>
+      <c r="A800" s="37"/>
     </row>
     <row r="801">
-      <c r="A801" s="26"/>
+      <c r="A801" s="37"/>
     </row>
     <row r="802">
-      <c r="A802" s="26"/>
+      <c r="A802" s="37"/>
     </row>
     <row r="803">
-      <c r="A803" s="26"/>
+      <c r="A803" s="37"/>
     </row>
     <row r="804">
-      <c r="A804" s="26"/>
+      <c r="A804" s="37"/>
     </row>
     <row r="805">
-      <c r="A805" s="26"/>
+      <c r="A805" s="37"/>
     </row>
     <row r="806">
-      <c r="A806" s="26"/>
+      <c r="A806" s="37"/>
     </row>
     <row r="807">
-      <c r="A807" s="26"/>
+      <c r="A807" s="37"/>
     </row>
     <row r="808">
-      <c r="A808" s="26"/>
+      <c r="A808" s="37"/>
     </row>
     <row r="809">
-      <c r="A809" s="26"/>
+      <c r="A809" s="37"/>
     </row>
     <row r="810">
-      <c r="A810" s="26"/>
+      <c r="A810" s="37"/>
     </row>
     <row r="811">
-      <c r="A811" s="26"/>
+      <c r="A811" s="37"/>
     </row>
     <row r="812">
-      <c r="A812" s="26"/>
+      <c r="A812" s="37"/>
     </row>
     <row r="813">
-      <c r="A813" s="26"/>
+      <c r="A813" s="37"/>
     </row>
     <row r="814">
-      <c r="A814" s="26"/>
+      <c r="A814" s="37"/>
     </row>
     <row r="815">
-      <c r="A815" s="26"/>
+      <c r="A815" s="37"/>
     </row>
     <row r="816">
-      <c r="A816" s="26"/>
+      <c r="A816" s="37"/>
     </row>
     <row r="817">
-      <c r="A817" s="26"/>
+      <c r="A817" s="37"/>
     </row>
     <row r="818">
-      <c r="A818" s="26"/>
+      <c r="A818" s="37"/>
     </row>
     <row r="819">
-      <c r="A819" s="26"/>
+      <c r="A819" s="37"/>
     </row>
     <row r="820">
-      <c r="A820" s="26"/>
+      <c r="A820" s="37"/>
     </row>
     <row r="821">
-      <c r="A821" s="26"/>
+      <c r="A821" s="37"/>
     </row>
     <row r="822">
-      <c r="A822" s="26"/>
+      <c r="A822" s="37"/>
     </row>
     <row r="823">
-      <c r="A823" s="26"/>
+      <c r="A823" s="37"/>
     </row>
     <row r="824">
-      <c r="A824" s="26"/>
+      <c r="A824" s="37"/>
     </row>
     <row r="825">
-      <c r="A825" s="26"/>
+      <c r="A825" s="37"/>
     </row>
     <row r="826">
-      <c r="A826" s="26"/>
+      <c r="A826" s="37"/>
     </row>
     <row r="827">
-      <c r="A827" s="26"/>
+      <c r="A827" s="37"/>
     </row>
     <row r="828">
-      <c r="A828" s="26"/>
+      <c r="A828" s="37"/>
     </row>
     <row r="829">
-      <c r="A829" s="26"/>
+      <c r="A829" s="37"/>
     </row>
     <row r="830">
-      <c r="A830" s="26"/>
+      <c r="A830" s="37"/>
     </row>
     <row r="831">
-      <c r="A831" s="26"/>
+      <c r="A831" s="37"/>
     </row>
     <row r="832">
-      <c r="A832" s="26"/>
+      <c r="A832" s="37"/>
     </row>
     <row r="833">
-      <c r="A833" s="26"/>
+      <c r="A833" s="37"/>
     </row>
     <row r="834">
-      <c r="A834" s="26"/>
+      <c r="A834" s="37"/>
     </row>
     <row r="835">
-      <c r="A835" s="26"/>
+      <c r="A835" s="37"/>
     </row>
     <row r="836">
-      <c r="A836" s="26"/>
+      <c r="A836" s="37"/>
     </row>
     <row r="837">
-      <c r="A837" s="26"/>
+      <c r="A837" s="37"/>
     </row>
     <row r="838">
-      <c r="A838" s="26"/>
+      <c r="A838" s="37"/>
     </row>
     <row r="839">
-      <c r="A839" s="26"/>
+      <c r="A839" s="37"/>
     </row>
     <row r="840">
-      <c r="A840" s="26"/>
+      <c r="A840" s="37"/>
     </row>
     <row r="841">
-      <c r="A841" s="26"/>
+      <c r="A841" s="37"/>
     </row>
     <row r="842">
-      <c r="A842" s="26"/>
+      <c r="A842" s="37"/>
     </row>
     <row r="843">
-      <c r="A843" s="26"/>
+      <c r="A843" s="37"/>
     </row>
     <row r="844">
-      <c r="A844" s="26"/>
+      <c r="A844" s="37"/>
     </row>
     <row r="845">
-      <c r="A845" s="26"/>
+      <c r="A845" s="37"/>
     </row>
     <row r="846">
-      <c r="A846" s="26"/>
+      <c r="A846" s="37"/>
     </row>
     <row r="847">
-      <c r="A847" s="26"/>
+      <c r="A847" s="37"/>
     </row>
     <row r="848">
-      <c r="A848" s="26"/>
+      <c r="A848" s="37"/>
     </row>
     <row r="849">
-      <c r="A849" s="26"/>
+      <c r="A849" s="37"/>
     </row>
     <row r="850">
-      <c r="A850" s="26"/>
+      <c r="A850" s="37"/>
     </row>
     <row r="851">
-      <c r="A851" s="26"/>
+      <c r="A851" s="37"/>
     </row>
     <row r="852">
-      <c r="A852" s="26"/>
+      <c r="A852" s="37"/>
     </row>
     <row r="853">
-      <c r="A853" s="26"/>
+      <c r="A853" s="37"/>
     </row>
     <row r="854">
-      <c r="A854" s="26"/>
+      <c r="A854" s="37"/>
     </row>
     <row r="855">
-      <c r="A855" s="26"/>
+      <c r="A855" s="37"/>
     </row>
     <row r="856">
-      <c r="A856" s="26"/>
+      <c r="A856" s="37"/>
     </row>
     <row r="857">
-      <c r="A857" s="26"/>
+      <c r="A857" s="37"/>
     </row>
     <row r="858">
-      <c r="A858" s="26"/>
+      <c r="A858" s="37"/>
     </row>
     <row r="859">
-      <c r="A859" s="26"/>
+      <c r="A859" s="37"/>
     </row>
     <row r="860">
-      <c r="A860" s="26"/>
+      <c r="A860" s="37"/>
     </row>
     <row r="861">
-      <c r="A861" s="26"/>
+      <c r="A861" s="37"/>
     </row>
     <row r="862">
-      <c r="A862" s="26"/>
+      <c r="A862" s="37"/>
     </row>
     <row r="863">
-      <c r="A863" s="26"/>
+      <c r="A863" s="37"/>
     </row>
     <row r="864">
-      <c r="A864" s="26"/>
+      <c r="A864" s="37"/>
     </row>
     <row r="865">
-      <c r="A865" s="26"/>
+      <c r="A865" s="37"/>
     </row>
     <row r="866">
-      <c r="A866" s="26"/>
+      <c r="A866" s="37"/>
     </row>
     <row r="867">
-      <c r="A867" s="26"/>
+      <c r="A867" s="37"/>
     </row>
     <row r="868">
-      <c r="A868" s="26"/>
+      <c r="A868" s="37"/>
     </row>
     <row r="869">
-      <c r="A869" s="26"/>
+      <c r="A869" s="37"/>
     </row>
     <row r="870">
-      <c r="A870" s="26"/>
+      <c r="A870" s="37"/>
     </row>
     <row r="871">
-      <c r="A871" s="26"/>
+      <c r="A871" s="37"/>
     </row>
     <row r="872">
-      <c r="A872" s="26"/>
+      <c r="A872" s="37"/>
     </row>
     <row r="873">
-      <c r="A873" s="26"/>
+      <c r="A873" s="37"/>
     </row>
     <row r="874">
-      <c r="A874" s="26"/>
+      <c r="A874" s="37"/>
     </row>
     <row r="875">
-      <c r="A875" s="26"/>
+      <c r="A875" s="37"/>
     </row>
     <row r="876">
-      <c r="A876" s="26"/>
+      <c r="A876" s="37"/>
     </row>
     <row r="877">
-      <c r="A877" s="26"/>
+      <c r="A877" s="37"/>
     </row>
     <row r="878">
-      <c r="A878" s="26"/>
+      <c r="A878" s="37"/>
     </row>
     <row r="879">
-      <c r="A879" s="26"/>
+      <c r="A879" s="37"/>
     </row>
     <row r="880">
-      <c r="A880" s="26"/>
+      <c r="A880" s="37"/>
     </row>
     <row r="881">
-      <c r="A881" s="26"/>
+      <c r="A881" s="37"/>
     </row>
     <row r="882">
-      <c r="A882" s="26"/>
+      <c r="A882" s="37"/>
     </row>
     <row r="883">
-      <c r="A883" s="26"/>
+      <c r="A883" s="37"/>
     </row>
     <row r="884">
-      <c r="A884" s="26"/>
+      <c r="A884" s="37"/>
     </row>
     <row r="885">
-      <c r="A885" s="26"/>
+      <c r="A885" s="37"/>
     </row>
     <row r="886">
-      <c r="A886" s="26"/>
+      <c r="A886" s="37"/>
     </row>
     <row r="887">
-      <c r="A887" s="26"/>
+      <c r="A887" s="37"/>
     </row>
     <row r="888">
-      <c r="A888" s="26"/>
+      <c r="A888" s="37"/>
     </row>
     <row r="889">
-      <c r="A889" s="26"/>
+      <c r="A889" s="37"/>
     </row>
     <row r="890">
-      <c r="A890" s="26"/>
+      <c r="A890" s="37"/>
     </row>
     <row r="891">
-      <c r="A891" s="26"/>
+      <c r="A891" s="37"/>
     </row>
     <row r="892">
-      <c r="A892" s="26"/>
+      <c r="A892" s="37"/>
     </row>
     <row r="893">
-      <c r="A893" s="26"/>
+      <c r="A893" s="37"/>
     </row>
     <row r="894">
-      <c r="A894" s="26"/>
+      <c r="A894" s="37"/>
     </row>
     <row r="895">
-      <c r="A895" s="26"/>
+      <c r="A895" s="37"/>
     </row>
     <row r="896">
-      <c r="A896" s="26"/>
+      <c r="A896" s="37"/>
     </row>
     <row r="897">
-      <c r="A897" s="26"/>
+      <c r="A897" s="37"/>
     </row>
     <row r="898">
-      <c r="A898" s="26"/>
+      <c r="A898" s="37"/>
     </row>
     <row r="899">
-      <c r="A899" s="26"/>
+      <c r="A899" s="37"/>
     </row>
     <row r="900">
-      <c r="A900" s="26"/>
+      <c r="A900" s="37"/>
     </row>
     <row r="901">
-      <c r="A901" s="26"/>
+      <c r="A901" s="37"/>
     </row>
     <row r="902">
-      <c r="A902" s="26"/>
+      <c r="A902" s="37"/>
     </row>
     <row r="903">
-      <c r="A903" s="26"/>
+      <c r="A903" s="37"/>
     </row>
     <row r="904">
-      <c r="A904" s="26"/>
+      <c r="A904" s="37"/>
     </row>
     <row r="905">
-      <c r="A905" s="26"/>
+      <c r="A905" s="37"/>
     </row>
     <row r="906">
-      <c r="A906" s="26"/>
+      <c r="A906" s="37"/>
     </row>
     <row r="907">
-      <c r="A907" s="26"/>
+      <c r="A907" s="37"/>
     </row>
     <row r="908">
-      <c r="A908" s="26"/>
+      <c r="A908" s="37"/>
     </row>
     <row r="909">
-      <c r="A909" s="26"/>
+      <c r="A909" s="37"/>
     </row>
     <row r="910">
-      <c r="A910" s="26"/>
+      <c r="A910" s="37"/>
     </row>
     <row r="911">
-      <c r="A911" s="26"/>
+      <c r="A911" s="37"/>
     </row>
     <row r="912">
-      <c r="A912" s="26"/>
+      <c r="A912" s="37"/>
     </row>
     <row r="913">
-      <c r="A913" s="26"/>
+      <c r="A913" s="37"/>
     </row>
     <row r="914">
-      <c r="A914" s="26"/>
+      <c r="A914" s="37"/>
     </row>
     <row r="915">
-      <c r="A915" s="26"/>
+      <c r="A915" s="37"/>
     </row>
     <row r="916">
-      <c r="A916" s="26"/>
+      <c r="A916" s="37"/>
     </row>
     <row r="917">
-      <c r="A917" s="26"/>
+      <c r="A917" s="37"/>
     </row>
     <row r="918">
-      <c r="A918" s="26"/>
+      <c r="A918" s="37"/>
     </row>
     <row r="919">
-      <c r="A919" s="26"/>
+      <c r="A919" s="37"/>
     </row>
     <row r="920">
-      <c r="A920" s="26"/>
+      <c r="A920" s="37"/>
     </row>
     <row r="921">
-      <c r="A921" s="26"/>
+      <c r="A921" s="37"/>
     </row>
     <row r="922">
-      <c r="A922" s="26"/>
+      <c r="A922" s="37"/>
     </row>
     <row r="923">
-      <c r="A923" s="26"/>
+      <c r="A923" s="37"/>
     </row>
     <row r="924">
-      <c r="A924" s="26"/>
+      <c r="A924" s="37"/>
     </row>
     <row r="925">
-      <c r="A925" s="26"/>
+      <c r="A925" s="37"/>
     </row>
     <row r="926">
-      <c r="A926" s="26"/>
+      <c r="A926" s="37"/>
     </row>
     <row r="927">
-      <c r="A927" s="26"/>
+      <c r="A927" s="37"/>
     </row>
     <row r="928">
-      <c r="A928" s="26"/>
+      <c r="A928" s="37"/>
     </row>
     <row r="929">
-      <c r="A929" s="26"/>
+      <c r="A929" s="37"/>
     </row>
     <row r="930">
-      <c r="A930" s="26"/>
+      <c r="A930" s="37"/>
     </row>
     <row r="931">
-      <c r="A931" s="26"/>
+      <c r="A931" s="37"/>
     </row>
     <row r="932">
-      <c r="A932" s="26"/>
+      <c r="A932" s="37"/>
     </row>
     <row r="933">
-      <c r="A933" s="26"/>
+      <c r="A933" s="37"/>
     </row>
     <row r="934">
-      <c r="A934" s="26"/>
+      <c r="A934" s="37"/>
     </row>
     <row r="935">
-      <c r="A935" s="26"/>
+      <c r="A935" s="37"/>
     </row>
     <row r="936">
-      <c r="A936" s="26"/>
+      <c r="A936" s="37"/>
     </row>
     <row r="937">
-      <c r="A937" s="26"/>
+      <c r="A937" s="37"/>
     </row>
     <row r="938">
-      <c r="A938" s="26"/>
+      <c r="A938" s="37"/>
     </row>
     <row r="939">
-      <c r="A939" s="26"/>
+      <c r="A939" s="37"/>
     </row>
     <row r="940">
-      <c r="A940" s="26"/>
+      <c r="A940" s="37"/>
     </row>
     <row r="941">
-      <c r="A941" s="26"/>
+      <c r="A941" s="37"/>
     </row>
     <row r="942">
-      <c r="A942" s="26"/>
+      <c r="A942" s="37"/>
     </row>
     <row r="943">
-      <c r="A943" s="26"/>
+      <c r="A943" s="37"/>
     </row>
     <row r="944">
-      <c r="A944" s="26"/>
+      <c r="A944" s="37"/>
     </row>
     <row r="945">
-      <c r="A945" s="26"/>
+      <c r="A945" s="37"/>
     </row>
     <row r="946">
-      <c r="A946" s="26"/>
+      <c r="A946" s="37"/>
     </row>
     <row r="947">
-      <c r="A947" s="26"/>
+      <c r="A947" s="37"/>
     </row>
     <row r="948">
-      <c r="A948" s="26"/>
+      <c r="A948" s="37"/>
     </row>
     <row r="949">
-      <c r="A949" s="26"/>
+      <c r="A949" s="37"/>
     </row>
     <row r="950">
-      <c r="A950" s="26"/>
+      <c r="A950" s="37"/>
     </row>
     <row r="951">
-      <c r="A951" s="26"/>
+      <c r="A951" s="37"/>
     </row>
     <row r="952">
-      <c r="A952" s="26"/>
+      <c r="A952" s="37"/>
     </row>
     <row r="953">
-      <c r="A953" s="26"/>
+      <c r="A953" s="37"/>
     </row>
     <row r="954">
-      <c r="A954" s="26"/>
+      <c r="A954" s="37"/>
     </row>
     <row r="955">
-      <c r="A955" s="26"/>
+      <c r="A955" s="37"/>
     </row>
     <row r="956">
-      <c r="A956" s="26"/>
+      <c r="A956" s="37"/>
     </row>
     <row r="957">
-      <c r="A957" s="26"/>
+      <c r="A957" s="37"/>
     </row>
     <row r="958">
-      <c r="A958" s="26"/>
+      <c r="A958" s="37"/>
     </row>
     <row r="959">
-      <c r="A959" s="26"/>
+      <c r="A959" s="37"/>
     </row>
     <row r="960">
-      <c r="A960" s="26"/>
+      <c r="A960" s="37"/>
     </row>
     <row r="961">
-      <c r="A961" s="26"/>
+      <c r="A961" s="37"/>
     </row>
     <row r="962">
-      <c r="A962" s="26"/>
+      <c r="A962" s="37"/>
     </row>
     <row r="963">
-      <c r="A963" s="26"/>
+      <c r="A963" s="37"/>
     </row>
     <row r="964">
-      <c r="A964" s="26"/>
+      <c r="A964" s="37"/>
     </row>
     <row r="965">
-      <c r="A965" s="26"/>
+      <c r="A965" s="37"/>
     </row>
     <row r="966">
-      <c r="A966" s="26"/>
+      <c r="A966" s="37"/>
     </row>
     <row r="967">
-      <c r="A967" s="26"/>
+      <c r="A967" s="37"/>
     </row>
     <row r="968">
-      <c r="A968" s="26"/>
+      <c r="A968" s="37"/>
     </row>
     <row r="969">
-      <c r="A969" s="26"/>
+      <c r="A969" s="37"/>
     </row>
     <row r="970">
-      <c r="A970" s="26"/>
+      <c r="A970" s="37"/>
     </row>
     <row r="971">
-      <c r="A971" s="26"/>
+      <c r="A971" s="37"/>
     </row>
     <row r="972">
-      <c r="A972" s="26"/>
+      <c r="A972" s="37"/>
     </row>
     <row r="973">
-      <c r="A973" s="26"/>
+      <c r="A973" s="37"/>
     </row>
     <row r="974">
-      <c r="A974" s="26"/>
+      <c r="A974" s="37"/>
     </row>
     <row r="975">
-      <c r="A975" s="26"/>
+      <c r="A975" s="37"/>
     </row>
     <row r="976">
-      <c r="A976" s="26"/>
+      <c r="A976" s="37"/>
     </row>
     <row r="977">
-      <c r="A977" s="26"/>
+      <c r="A977" s="37"/>
     </row>
     <row r="978">
-      <c r="A978" s="26"/>
+      <c r="A978" s="37"/>
     </row>
     <row r="979">
-      <c r="A979" s="26"/>
+      <c r="A979" s="37"/>
     </row>
     <row r="980">
-      <c r="A980" s="26"/>
+      <c r="A980" s="37"/>
     </row>
     <row r="981">
-      <c r="A981" s="26"/>
+      <c r="A981" s="37"/>
     </row>
     <row r="982">
-      <c r="A982" s="26"/>
+      <c r="A982" s="37"/>
     </row>
     <row r="983">
-      <c r="A983" s="26"/>
+      <c r="A983" s="37"/>
     </row>
     <row r="984">
-      <c r="A984" s="26"/>
+      <c r="A984" s="37"/>
     </row>
     <row r="985">
-      <c r="A985" s="26"/>
+      <c r="A985" s="37"/>
     </row>
     <row r="986">
-      <c r="A986" s="26"/>
+      <c r="A986" s="37"/>
     </row>
     <row r="987">
-      <c r="A987" s="26"/>
+      <c r="A987" s="37"/>
     </row>
     <row r="988">
-      <c r="A988" s="26"/>
+      <c r="A988" s="37"/>
     </row>
     <row r="989">
-      <c r="A989" s="26"/>
+      <c r="A989" s="37"/>
     </row>
     <row r="990">
-      <c r="A990" s="26"/>
+      <c r="A990" s="37"/>
     </row>
     <row r="991">
-      <c r="A991" s="26"/>
+      <c r="A991" s="37"/>
     </row>
     <row r="992">
-      <c r="A992" s="26"/>
+      <c r="A992" s="37"/>
     </row>
     <row r="993">
-      <c r="A993" s="26"/>
+      <c r="A993" s="37"/>
     </row>
     <row r="994">
-      <c r="A994" s="26"/>
+      <c r="A994" s="37"/>
     </row>
     <row r="995">
-      <c r="A995" s="26"/>
+      <c r="A995" s="37"/>
     </row>
     <row r="996">
-      <c r="A996" s="26"/>
+      <c r="A996" s="37"/>
     </row>
     <row r="997">
-      <c r="A997" s="26"/>
+      <c r="A997" s="37"/>
     </row>
     <row r="998">
-      <c r="A998" s="26"/>
+      <c r="A998" s="37"/>
     </row>
     <row r="999">
-      <c r="A999" s="26"/>
+      <c r="A999" s="37"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
